--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -2681,6 +2681,11 @@
           <t>2022/2022-08-16/20220816.R</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2022/2022-08-16/20220816.png</t>
+        </is>
+      </c>
       <c r="G33">
         <v>1</v>
       </c>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG86"/>
+  <dimension ref="A1:CH89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,6 +783,11 @@
           <t>viridis</t>
         </is>
       </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>VoronoiPlus</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1052,6 +1057,9 @@
       <c r="CG2">
         <v>0</v>
       </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1321,6 +1329,9 @@
       <c r="CG3">
         <v>0</v>
       </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1590,6 +1601,9 @@
       <c r="CG4">
         <v>0</v>
       </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1859,6 +1873,9 @@
       <c r="CG5">
         <v>0</v>
       </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2128,6 +2145,9 @@
       <c r="CG6">
         <v>0</v>
       </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2397,6 +2417,9 @@
       <c r="CG7">
         <v>0</v>
       </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2666,6 +2689,9 @@
       <c r="CG8">
         <v>0</v>
       </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2935,6 +2961,9 @@
       <c r="CG9">
         <v>0</v>
       </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3204,6 +3233,9 @@
       <c r="CG10">
         <v>0</v>
       </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3473,6 +3505,9 @@
       <c r="CG11">
         <v>0</v>
       </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3742,6 +3777,9 @@
       <c r="CG12">
         <v>0</v>
       </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4011,6 +4049,9 @@
       <c r="CG13">
         <v>0</v>
       </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4280,6 +4321,9 @@
       <c r="CG14">
         <v>0</v>
       </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4549,6 +4593,9 @@
       <c r="CG15">
         <v>0</v>
       </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4818,6 +4865,9 @@
       <c r="CG16">
         <v>0</v>
       </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5087,6 +5137,9 @@
       <c r="CG17">
         <v>0</v>
       </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5356,6 +5409,9 @@
       <c r="CG18">
         <v>0</v>
       </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5625,6 +5681,9 @@
       <c r="CG19">
         <v>0</v>
       </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5894,6 +5953,9 @@
       <c r="CG20">
         <v>0</v>
       </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6163,6 +6225,9 @@
       <c r="CG21">
         <v>0</v>
       </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6432,6 +6497,9 @@
       <c r="CG22">
         <v>0</v>
       </c>
+      <c r="CH22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6701,6 +6769,9 @@
       <c r="CG23">
         <v>0</v>
       </c>
+      <c r="CH23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6970,6 +7041,9 @@
       <c r="CG24">
         <v>0</v>
       </c>
+      <c r="CH24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7239,6 +7313,9 @@
       <c r="CG25">
         <v>0</v>
       </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7508,6 +7585,9 @@
       <c r="CG26">
         <v>0</v>
       </c>
+      <c r="CH26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7777,6 +7857,9 @@
       <c r="CG27">
         <v>0</v>
       </c>
+      <c r="CH27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8046,6 +8129,9 @@
       <c r="CG28">
         <v>0</v>
       </c>
+      <c r="CH28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8315,6 +8401,9 @@
       <c r="CG29">
         <v>0</v>
       </c>
+      <c r="CH29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8584,6 +8673,9 @@
       <c r="CG30">
         <v>0</v>
       </c>
+      <c r="CH30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8853,6 +8945,9 @@
       <c r="CG31">
         <v>0</v>
       </c>
+      <c r="CH31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9122,6 +9217,9 @@
       <c r="CG32">
         <v>0</v>
       </c>
+      <c r="CH32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9391,6 +9489,9 @@
       <c r="CG33">
         <v>0</v>
       </c>
+      <c r="CH33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9660,6 +9761,9 @@
       <c r="CG34">
         <v>0</v>
       </c>
+      <c r="CH34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9929,6 +10033,9 @@
       <c r="CG35">
         <v>0</v>
       </c>
+      <c r="CH35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10198,6 +10305,9 @@
       <c r="CG36">
         <v>0</v>
       </c>
+      <c r="CH36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10467,6 +10577,9 @@
       <c r="CG37">
         <v>0</v>
       </c>
+      <c r="CH37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10736,6 +10849,9 @@
       <c r="CG38">
         <v>0</v>
       </c>
+      <c r="CH38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11005,6 +11121,9 @@
       <c r="CG39">
         <v>0</v>
       </c>
+      <c r="CH39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11274,6 +11393,9 @@
       <c r="CG40">
         <v>0</v>
       </c>
+      <c r="CH40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11543,6 +11665,9 @@
       <c r="CG41">
         <v>0</v>
       </c>
+      <c r="CH41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11812,6 +11937,9 @@
       <c r="CG42">
         <v>0</v>
       </c>
+      <c r="CH42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12081,6 +12209,9 @@
       <c r="CG43">
         <v>0</v>
       </c>
+      <c r="CH43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12350,6 +12481,9 @@
       <c r="CG44">
         <v>0</v>
       </c>
+      <c r="CH44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12619,6 +12753,9 @@
       <c r="CG45">
         <v>0</v>
       </c>
+      <c r="CH45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12888,6 +13025,9 @@
       <c r="CG46">
         <v>0</v>
       </c>
+      <c r="CH46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13157,6 +13297,9 @@
       <c r="CG47">
         <v>1</v>
       </c>
+      <c r="CH47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13426,6 +13569,9 @@
       <c r="CG48">
         <v>0</v>
       </c>
+      <c r="CH48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13695,6 +13841,9 @@
       <c r="CG49">
         <v>0</v>
       </c>
+      <c r="CH49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13964,6 +14113,9 @@
       <c r="CG50">
         <v>0</v>
       </c>
+      <c r="CH50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14233,6 +14385,9 @@
       <c r="CG51">
         <v>0</v>
       </c>
+      <c r="CH51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14502,6 +14657,9 @@
       <c r="CG52">
         <v>0</v>
       </c>
+      <c r="CH52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14771,6 +14929,9 @@
       <c r="CG53">
         <v>0</v>
       </c>
+      <c r="CH53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15040,6 +15201,9 @@
       <c r="CG54">
         <v>0</v>
       </c>
+      <c r="CH54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15309,6 +15473,9 @@
       <c r="CG55">
         <v>0</v>
       </c>
+      <c r="CH55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15578,6 +15745,9 @@
       <c r="CG56">
         <v>0</v>
       </c>
+      <c r="CH56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15847,6 +16017,9 @@
       <c r="CG57">
         <v>0</v>
       </c>
+      <c r="CH57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16116,6 +16289,9 @@
       <c r="CG58">
         <v>0</v>
       </c>
+      <c r="CH58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16385,6 +16561,9 @@
       <c r="CG59">
         <v>0</v>
       </c>
+      <c r="CH59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16654,6 +16833,9 @@
       <c r="CG60">
         <v>0</v>
       </c>
+      <c r="CH60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16923,6 +17105,9 @@
       <c r="CG61">
         <v>0</v>
       </c>
+      <c r="CH61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -17192,6 +17377,9 @@
       <c r="CG62">
         <v>0</v>
       </c>
+      <c r="CH62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17461,6 +17649,9 @@
       <c r="CG63">
         <v>0</v>
       </c>
+      <c r="CH63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -17730,6 +17921,9 @@
       <c r="CG64">
         <v>0</v>
       </c>
+      <c r="CH64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17999,6 +18193,9 @@
       <c r="CG65">
         <v>0</v>
       </c>
+      <c r="CH65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18268,6 +18465,9 @@
       <c r="CG66">
         <v>0</v>
       </c>
+      <c r="CH66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18537,6 +18737,9 @@
       <c r="CG67">
         <v>0</v>
       </c>
+      <c r="CH67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18806,6 +19009,9 @@
       <c r="CG68">
         <v>0</v>
       </c>
+      <c r="CH68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -19075,6 +19281,9 @@
       <c r="CG69">
         <v>0</v>
       </c>
+      <c r="CH69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -19344,6 +19553,9 @@
       <c r="CG70">
         <v>0</v>
       </c>
+      <c r="CH70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -19613,6 +19825,9 @@
       <c r="CG71">
         <v>0</v>
       </c>
+      <c r="CH71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19882,6 +20097,9 @@
       <c r="CG72">
         <v>0</v>
       </c>
+      <c r="CH72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -20151,6 +20369,9 @@
       <c r="CG73">
         <v>0</v>
       </c>
+      <c r="CH73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -20420,6 +20641,9 @@
       <c r="CG74">
         <v>0</v>
       </c>
+      <c r="CH74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -20689,6 +20913,9 @@
       <c r="CG75">
         <v>0</v>
       </c>
+      <c r="CH75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -20958,6 +21185,9 @@
       <c r="CG76">
         <v>0</v>
       </c>
+      <c r="CH76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -21227,6 +21457,9 @@
       <c r="CG77">
         <v>0</v>
       </c>
+      <c r="CH77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -21496,6 +21729,9 @@
       <c r="CG78">
         <v>0</v>
       </c>
+      <c r="CH78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -21765,6 +22001,9 @@
       <c r="CG79">
         <v>0</v>
       </c>
+      <c r="CH79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -22034,6 +22273,9 @@
       <c r="CG80">
         <v>0</v>
       </c>
+      <c r="CH80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -22303,6 +22545,9 @@
       <c r="CG81">
         <v>0</v>
       </c>
+      <c r="CH81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -22572,6 +22817,9 @@
       <c r="CG82">
         <v>0</v>
       </c>
+      <c r="CH82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -22841,6 +23089,9 @@
       <c r="CG83">
         <v>0</v>
       </c>
+      <c r="CH83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -23110,6 +23361,9 @@
       <c r="CG84">
         <v>0</v>
       </c>
+      <c r="CH84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -23379,6 +23633,9 @@
       <c r="CG85">
         <v>0</v>
       </c>
+      <c r="CH85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -23647,6 +23904,825 @@
       </c>
       <c r="CG86">
         <v>0</v>
+      </c>
+      <c r="CH86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Fair Use</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, emojifont, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023/2023-08-29/20230829.R</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2023/2023-08-29/20230829.png</t>
+        </is>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
+      <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>1</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>1</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+      <c r="BQ87">
+        <v>0</v>
+      </c>
+      <c r="BR87">
+        <v>1</v>
+      </c>
+      <c r="BS87">
+        <v>0</v>
+      </c>
+      <c r="BT87">
+        <v>0</v>
+      </c>
+      <c r="BU87">
+        <v>0</v>
+      </c>
+      <c r="BV87">
+        <v>0</v>
+      </c>
+      <c r="BW87">
+        <v>0</v>
+      </c>
+      <c r="BX87">
+        <v>0</v>
+      </c>
+      <c r="BY87">
+        <v>0</v>
+      </c>
+      <c r="BZ87">
+        <v>0</v>
+      </c>
+      <c r="CA87">
+        <v>1</v>
+      </c>
+      <c r="CB87">
+        <v>1</v>
+      </c>
+      <c r="CC87">
+        <v>0</v>
+      </c>
+      <c r="CD87">
+        <v>0</v>
+      </c>
+      <c r="CE87">
+        <v>0</v>
+      </c>
+      <c r="CF87">
+        <v>0</v>
+      </c>
+      <c r="CG87">
+        <v>0</v>
+      </c>
+      <c r="CH87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Union Membership in the United States</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, gghighlight, geofacet, nrBrand, glue, readr</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023/2023-09-05/20230905.R</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2023/2023-09-05/20230905.png</t>
+        </is>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <v>0</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>1</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>0</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>1</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+      <c r="BQ88">
+        <v>0</v>
+      </c>
+      <c r="BR88">
+        <v>1</v>
+      </c>
+      <c r="BS88">
+        <v>0</v>
+      </c>
+      <c r="BT88">
+        <v>0</v>
+      </c>
+      <c r="BU88">
+        <v>0</v>
+      </c>
+      <c r="BV88">
+        <v>0</v>
+      </c>
+      <c r="BW88">
+        <v>0</v>
+      </c>
+      <c r="BX88">
+        <v>0</v>
+      </c>
+      <c r="BY88">
+        <v>0</v>
+      </c>
+      <c r="BZ88">
+        <v>0</v>
+      </c>
+      <c r="CA88">
+        <v>0</v>
+      </c>
+      <c r="CB88">
+        <v>1</v>
+      </c>
+      <c r="CC88">
+        <v>0</v>
+      </c>
+      <c r="CD88">
+        <v>0</v>
+      </c>
+      <c r="CE88">
+        <v>0</v>
+      </c>
+      <c r="CF88">
+        <v>0</v>
+      </c>
+      <c r="CG88">
+        <v>0</v>
+      </c>
+      <c r="CH88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-09-12</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>The Global Human Day</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, glue, rcartocolor, VoronoiPlus, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023/2023-09-12/20230912.R</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2023/2023-09-12/20230912.png</t>
+        </is>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>0</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+      <c r="AZ89">
+        <v>1</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>0</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>1</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
+      <c r="BQ89">
+        <v>0</v>
+      </c>
+      <c r="BR89">
+        <v>1</v>
+      </c>
+      <c r="BS89">
+        <v>0</v>
+      </c>
+      <c r="BT89">
+        <v>0</v>
+      </c>
+      <c r="BU89">
+        <v>0</v>
+      </c>
+      <c r="BV89">
+        <v>0</v>
+      </c>
+      <c r="BW89">
+        <v>0</v>
+      </c>
+      <c r="BX89">
+        <v>0</v>
+      </c>
+      <c r="BY89">
+        <v>0</v>
+      </c>
+      <c r="BZ89">
+        <v>0</v>
+      </c>
+      <c r="CA89">
+        <v>1</v>
+      </c>
+      <c r="CB89">
+        <v>1</v>
+      </c>
+      <c r="CC89">
+        <v>0</v>
+      </c>
+      <c r="CD89">
+        <v>0</v>
+      </c>
+      <c r="CE89">
+        <v>0</v>
+      </c>
+      <c r="CF89">
+        <v>0</v>
+      </c>
+      <c r="CG89">
+        <v>0</v>
+      </c>
+      <c r="CH89">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CH89"/>
+  <dimension ref="A1:CJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,245 +545,255 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>ggwordcloud</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>glue</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>grid</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>gtable</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>here</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>hrbrthemes</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>htmlwidgets</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>igraph</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>jcolors</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>LondonMarathon</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>lubridate</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>lwgeom</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>magick</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>maps</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>MetBrewer</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>monochromeR</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>nrBrand</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>osmdata</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>patchwork</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>plotly</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>plyr</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>png</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>poissoned</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>PostcodesioR</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>PrettyCols</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>purrr</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>raster</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>rcartocolor</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>RCurl</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>readr</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>rnaturalearth</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>rnaturalearthdata</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>scales</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>sf</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>showtext</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>spatstat</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>spatstat.geom</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>stringr</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>sysfonts</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>terra</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>tidyr</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>tidyterra</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>tidytext</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>tidytuesdayR</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>tidyverse</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>treemapify</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>tsibble</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>usefunc</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>usmap</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>viridis</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>VoronoiPlus</t>
         </is>
@@ -1060,6 +1070,12 @@
       <c r="CH2">
         <v>0</v>
       </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1246,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3">
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI3">
         <v>0</v>
@@ -1282,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3">
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1309,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -1330,6 +1346,12 @@
         <v>0</v>
       </c>
       <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
         <v>0</v>
       </c>
     </row>
@@ -1461,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1554,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -1581,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="CA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC4">
         <v>1</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF4">
         <v>0</v>
@@ -1602,6 +1624,12 @@
         <v>0</v>
       </c>
       <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
         <v>0</v>
       </c>
     </row>
@@ -1805,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5">
         <v>0</v>
@@ -1826,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -1853,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -1874,6 +1902,12 @@
         <v>0</v>
       </c>
       <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
         <v>0</v>
       </c>
     </row>
@@ -2032,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -2077,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -2089,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -2098,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6">
         <v>0</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6">
         <v>0</v>
@@ -2128,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -2146,6 +2180,12 @@
         <v>0</v>
       </c>
       <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
         <v>0</v>
       </c>
     </row>
@@ -2298,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
         <v>0</v>
@@ -2349,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7">
         <v>0</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN7">
         <v>0</v>
@@ -2370,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7">
         <v>0</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7">
         <v>0</v>
@@ -2397,27 +2437,33 @@
         <v>0</v>
       </c>
       <c r="CA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF7">
         <v>0</v>
       </c>
       <c r="CG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
         <v>0</v>
       </c>
     </row>
@@ -2627,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8">
         <v>0</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2642,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8">
         <v>0</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -2672,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="CB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE8">
         <v>0</v>
@@ -2690,6 +2736,12 @@
         <v>0</v>
       </c>
       <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
         <v>0</v>
       </c>
     </row>
@@ -2914,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9">
         <v>0</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9">
         <v>0</v>
@@ -2941,27 +2993,33 @@
         <v>0</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF9">
         <v>0</v>
       </c>
       <c r="CG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
         <v>0</v>
       </c>
     </row>
@@ -3183,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10">
         <v>0</v>
@@ -3213,27 +3271,33 @@
         <v>0</v>
       </c>
       <c r="CA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF10">
         <v>0</v>
       </c>
       <c r="CG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
         <v>0</v>
       </c>
     </row>
@@ -3458,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11">
         <v>0</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11">
         <v>0</v>
@@ -3485,27 +3549,33 @@
         <v>0</v>
       </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF11">
         <v>0</v>
       </c>
       <c r="CG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
         <v>0</v>
       </c>
     </row>
@@ -3637,13 +3707,13 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12">
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -3652,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3664,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12">
         <v>0</v>
@@ -3691,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="BE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12">
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12">
         <v>0</v>
@@ -3712,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="BL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12">
         <v>0</v>
       </c>
       <c r="BN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO12">
         <v>0</v>
@@ -3730,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12">
         <v>0</v>
       </c>
       <c r="BT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12">
         <v>0</v>
@@ -3757,27 +3827,33 @@
         <v>0</v>
       </c>
       <c r="CA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF12">
         <v>0</v>
       </c>
       <c r="CG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
         <v>0</v>
       </c>
     </row>
@@ -3954,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13">
         <v>0</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13">
         <v>0</v>
@@ -3981,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="BK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13">
         <v>0</v>
       </c>
       <c r="BM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN13">
         <v>0</v>
@@ -4002,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="BR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13">
         <v>0</v>
       </c>
       <c r="BT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13">
         <v>0</v>
@@ -4029,27 +4105,33 @@
         <v>0</v>
       </c>
       <c r="CA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF13">
         <v>0</v>
       </c>
       <c r="CG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
         <v>0</v>
       </c>
     </row>
@@ -4268,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="BP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14">
         <v>0</v>
@@ -4280,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="BT14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14">
         <v>0</v>
@@ -4301,27 +4383,33 @@
         <v>0</v>
       </c>
       <c r="CA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF14">
         <v>0</v>
       </c>
       <c r="CG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
         <v>0</v>
       </c>
     </row>
@@ -4546,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15">
         <v>0</v>
       </c>
       <c r="BT15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15">
         <v>0</v>
@@ -4573,27 +4661,33 @@
         <v>0</v>
       </c>
       <c r="CA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF15">
         <v>0</v>
       </c>
       <c r="CG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
         <v>0</v>
       </c>
     </row>
@@ -4725,19 +4819,19 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4845,27 +4939,33 @@
         <v>0</v>
       </c>
       <c r="CA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF16">
         <v>0</v>
       </c>
       <c r="CG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
         <v>0</v>
       </c>
     </row>
@@ -5018,13 +5118,13 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -5090,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="BR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17">
         <v>0</v>
       </c>
       <c r="BT17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU17">
         <v>0</v>
@@ -5114,30 +5214,36 @@
         <v>0</v>
       </c>
       <c r="BZ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB17">
         <v>1</v>
       </c>
       <c r="CC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF17">
         <v>0</v>
       </c>
       <c r="CG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
         <v>0</v>
       </c>
     </row>
@@ -5281,22 +5387,22 @@
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18">
         <v>0</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>0</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18">
         <v>0</v>
@@ -5317,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18">
         <v>0</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18">
         <v>0</v>
@@ -5362,13 +5468,13 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18">
         <v>0</v>
       </c>
       <c r="BT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18">
         <v>0</v>
@@ -5386,30 +5492,36 @@
         <v>0</v>
       </c>
       <c r="BZ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB18">
         <v>1</v>
       </c>
       <c r="CC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF18">
         <v>0</v>
       </c>
       <c r="CG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
         <v>0</v>
       </c>
     </row>
@@ -5613,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="BK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19">
         <v>0</v>
@@ -5625,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="BO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <v>0</v>
@@ -5634,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS19">
         <v>0</v>
       </c>
       <c r="BT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19">
         <v>0</v>
@@ -5652,13 +5764,13 @@
         <v>0</v>
       </c>
       <c r="BX19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY19">
         <v>0</v>
       </c>
       <c r="BZ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA19">
         <v>0</v>
@@ -5673,15 +5785,21 @@
         <v>0</v>
       </c>
       <c r="CE19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF19">
         <v>0</v>
       </c>
       <c r="CG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
         <v>0</v>
       </c>
     </row>
@@ -5891,13 +6009,13 @@
         <v>0</v>
       </c>
       <c r="BM20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20">
         <v>0</v>
       </c>
       <c r="BO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>0</v>
@@ -5906,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="BR20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20">
         <v>0</v>
       </c>
       <c r="BT20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20">
         <v>0</v>
@@ -5936,24 +6054,30 @@
         <v>0</v>
       </c>
       <c r="CB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC20">
         <v>0</v>
       </c>
       <c r="CD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF20">
         <v>0</v>
       </c>
       <c r="CG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
         <v>0</v>
       </c>
     </row>
@@ -6178,13 +6302,13 @@
         <v>0</v>
       </c>
       <c r="BR21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21">
         <v>0</v>
       </c>
       <c r="BT21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU21">
         <v>0</v>
@@ -6205,16 +6329,16 @@
         <v>0</v>
       </c>
       <c r="CA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE21">
         <v>0</v>
@@ -6226,6 +6350,12 @@
         <v>0</v>
       </c>
       <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
         <v>0</v>
       </c>
     </row>
@@ -6378,13 +6508,13 @@
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22">
         <v>0</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW22">
         <v>0</v>
@@ -6450,13 +6580,13 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22">
         <v>0</v>
       </c>
       <c r="BT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU22">
         <v>0</v>
@@ -6477,27 +6607,33 @@
         <v>0</v>
       </c>
       <c r="CA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF22">
         <v>0</v>
       </c>
       <c r="CG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH22">
+        <v>0</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
         <v>0</v>
       </c>
     </row>
@@ -6722,13 +6858,13 @@
         <v>0</v>
       </c>
       <c r="BR23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23">
         <v>0</v>
       </c>
       <c r="BT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU23">
         <v>0</v>
@@ -6749,16 +6885,16 @@
         <v>0</v>
       </c>
       <c r="CA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE23">
         <v>0</v>
@@ -6770,6 +6906,12 @@
         <v>0</v>
       </c>
       <c r="CH23">
+        <v>0</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
         <v>0</v>
       </c>
     </row>
@@ -6946,13 +7088,13 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24">
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24">
         <v>0</v>
@@ -6979,13 +7121,13 @@
         <v>0</v>
       </c>
       <c r="BM24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN24">
         <v>0</v>
       </c>
       <c r="BO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP24">
         <v>0</v>
@@ -6994,13 +7136,13 @@
         <v>0</v>
       </c>
       <c r="BR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24">
         <v>0</v>
       </c>
       <c r="BT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU24">
         <v>0</v>
@@ -7024,24 +7166,30 @@
         <v>0</v>
       </c>
       <c r="CB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC24">
         <v>0</v>
       </c>
       <c r="CD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF24">
         <v>0</v>
       </c>
       <c r="CG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH24">
+        <v>0</v>
+      </c>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
         <v>0</v>
       </c>
     </row>
@@ -7194,13 +7342,13 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -7251,13 +7399,13 @@
         <v>0</v>
       </c>
       <c r="BM25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN25">
         <v>0</v>
       </c>
       <c r="BO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -7266,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS25">
         <v>0</v>
       </c>
       <c r="BT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25">
         <v>0</v>
@@ -7296,24 +7444,30 @@
         <v>0</v>
       </c>
       <c r="CB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC25">
         <v>0</v>
       </c>
       <c r="CD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF25">
         <v>0</v>
       </c>
       <c r="CG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25">
         <v>0</v>
       </c>
     </row>
@@ -7523,13 +7677,13 @@
         <v>0</v>
       </c>
       <c r="BM26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN26">
         <v>0</v>
       </c>
       <c r="BO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP26">
         <v>0</v>
@@ -7538,22 +7692,22 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS26">
         <v>0</v>
       </c>
       <c r="BT26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV26">
         <v>0</v>
       </c>
       <c r="BW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX26">
         <v>0</v>
@@ -7568,24 +7722,30 @@
         <v>0</v>
       </c>
       <c r="CB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC26">
         <v>0</v>
       </c>
       <c r="CD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF26">
         <v>0</v>
       </c>
       <c r="CG26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH26">
+        <v>0</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
         <v>0</v>
       </c>
     </row>
@@ -7762,13 +7922,13 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27">
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE27">
         <v>0</v>
@@ -7777,13 +7937,13 @@
         <v>0</v>
       </c>
       <c r="BG27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27">
         <v>0</v>
       </c>
       <c r="BI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ27">
         <v>0</v>
@@ -7795,28 +7955,28 @@
         <v>0</v>
       </c>
       <c r="BM27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27">
         <v>1</v>
       </c>
       <c r="BP27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ27">
         <v>1</v>
       </c>
       <c r="BR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU27">
         <v>0</v>
@@ -7840,24 +8000,30 @@
         <v>0</v>
       </c>
       <c r="CB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC27">
         <v>0</v>
       </c>
       <c r="CD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF27">
         <v>0</v>
       </c>
       <c r="CG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH27">
+        <v>0</v>
+      </c>
+      <c r="CI27">
+        <v>0</v>
+      </c>
+      <c r="CJ27">
         <v>0</v>
       </c>
     </row>
@@ -8010,13 +8176,13 @@
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28">
         <v>0</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW28">
         <v>0</v>
@@ -8034,13 +8200,13 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28">
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE28">
         <v>0</v>
@@ -8061,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="BK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL28">
         <v>0</v>
@@ -8073,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP28">
         <v>0</v>
@@ -8082,22 +8248,22 @@
         <v>0</v>
       </c>
       <c r="BR28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS28">
         <v>0</v>
       </c>
       <c r="BT28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV28">
         <v>0</v>
       </c>
       <c r="BW28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX28">
         <v>0</v>
@@ -8112,13 +8278,13 @@
         <v>0</v>
       </c>
       <c r="CB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC28">
         <v>0</v>
       </c>
       <c r="CD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE28">
         <v>0</v>
@@ -8130,6 +8296,12 @@
         <v>0</v>
       </c>
       <c r="CH28">
+        <v>0</v>
+      </c>
+      <c r="CI28">
+        <v>0</v>
+      </c>
+      <c r="CJ28">
         <v>0</v>
       </c>
     </row>
@@ -8282,13 +8454,13 @@
         <v>0</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29">
         <v>0</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW29">
         <v>0</v>
@@ -8333,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="BK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29">
         <v>0</v>
@@ -8345,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="BO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP29">
         <v>0</v>
@@ -8354,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS29">
         <v>0</v>
       </c>
       <c r="BT29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU29">
         <v>0</v>
@@ -8384,13 +8556,13 @@
         <v>0</v>
       </c>
       <c r="CB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC29">
         <v>0</v>
       </c>
       <c r="CD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE29">
         <v>0</v>
@@ -8402,6 +8574,12 @@
         <v>0</v>
       </c>
       <c r="CH29">
+        <v>0</v>
+      </c>
+      <c r="CI29">
+        <v>0</v>
+      </c>
+      <c r="CJ29">
         <v>0</v>
       </c>
     </row>
@@ -8578,13 +8756,13 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30">
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE30">
         <v>0</v>
@@ -8611,16 +8789,16 @@
         <v>0</v>
       </c>
       <c r="BM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN30">
         <v>0</v>
       </c>
       <c r="BO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ30">
         <v>0</v>
@@ -8632,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="BT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU30">
         <v>0</v>
@@ -8656,24 +8834,30 @@
         <v>0</v>
       </c>
       <c r="CB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC30">
         <v>0</v>
       </c>
       <c r="CD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF30">
         <v>0</v>
       </c>
       <c r="CG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH30">
+        <v>0</v>
+      </c>
+      <c r="CI30">
+        <v>0</v>
+      </c>
+      <c r="CJ30">
         <v>0</v>
       </c>
     </row>
@@ -8805,10 +8989,10 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -8826,13 +9010,13 @@
         <v>0</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31">
         <v>0</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -8877,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="BK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31">
         <v>0</v>
@@ -8889,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="BO31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -8898,13 +9082,13 @@
         <v>0</v>
       </c>
       <c r="BR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS31">
         <v>0</v>
       </c>
       <c r="BT31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU31">
         <v>0</v>
@@ -8928,24 +9112,30 @@
         <v>0</v>
       </c>
       <c r="CB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC31">
         <v>0</v>
       </c>
       <c r="CD31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF31">
         <v>0</v>
       </c>
       <c r="CG31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH31">
+        <v>0</v>
+      </c>
+      <c r="CI31">
+        <v>0</v>
+      </c>
+      <c r="CJ31">
         <v>0</v>
       </c>
     </row>
@@ -9143,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="BI32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ32">
         <v>0</v>
@@ -9161,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP32">
         <v>0</v>
@@ -9170,13 +9360,13 @@
         <v>0</v>
       </c>
       <c r="BR32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS32">
         <v>0</v>
       </c>
       <c r="BT32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU32">
         <v>0</v>
@@ -9200,24 +9390,30 @@
         <v>0</v>
       </c>
       <c r="CB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC32">
         <v>0</v>
       </c>
       <c r="CD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF32">
         <v>0</v>
       </c>
       <c r="CG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH32">
+        <v>0</v>
+      </c>
+      <c r="CI32">
+        <v>0</v>
+      </c>
+      <c r="CJ32">
         <v>0</v>
       </c>
     </row>
@@ -9349,10 +9545,10 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -9376,13 +9572,13 @@
         <v>0</v>
       </c>
       <c r="AV33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33">
         <v>0</v>
       </c>
       <c r="AX33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33">
         <v>0</v>
@@ -9400,13 +9596,13 @@
         <v>0</v>
       </c>
       <c r="BD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33">
         <v>0</v>
       </c>
       <c r="BF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG33">
         <v>0</v>
@@ -9427,16 +9623,16 @@
         <v>0</v>
       </c>
       <c r="BM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33">
         <v>0</v>
       </c>
       <c r="BO33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ33">
         <v>0</v>
@@ -9448,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="BT33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV33">
         <v>0</v>
       </c>
       <c r="BW33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX33">
         <v>0</v>
@@ -9472,13 +9668,13 @@
         <v>0</v>
       </c>
       <c r="CB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC33">
         <v>0</v>
       </c>
       <c r="CD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE33">
         <v>0</v>
@@ -9490,6 +9686,12 @@
         <v>0</v>
       </c>
       <c r="CH33">
+        <v>0</v>
+      </c>
+      <c r="CI33">
+        <v>0</v>
+      </c>
+      <c r="CJ33">
         <v>0</v>
       </c>
     </row>
@@ -9699,13 +9901,13 @@
         <v>0</v>
       </c>
       <c r="BM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34">
         <v>0</v>
       </c>
       <c r="BO34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP34">
         <v>0</v>
@@ -9714,13 +9916,13 @@
         <v>0</v>
       </c>
       <c r="BR34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS34">
         <v>0</v>
       </c>
       <c r="BT34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU34">
         <v>0</v>
@@ -9744,13 +9946,13 @@
         <v>0</v>
       </c>
       <c r="CB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC34">
         <v>0</v>
       </c>
       <c r="CD34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE34">
         <v>0</v>
@@ -9762,6 +9964,12 @@
         <v>0</v>
       </c>
       <c r="CH34">
+        <v>0</v>
+      </c>
+      <c r="CI34">
+        <v>0</v>
+      </c>
+      <c r="CJ34">
         <v>0</v>
       </c>
     </row>
@@ -9971,16 +10179,16 @@
         <v>0</v>
       </c>
       <c r="BM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35">
         <v>0</v>
       </c>
       <c r="BO35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ35">
         <v>0</v>
@@ -9992,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="BT35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU35">
         <v>0</v>
@@ -10016,24 +10224,30 @@
         <v>0</v>
       </c>
       <c r="CB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC35">
         <v>0</v>
       </c>
       <c r="CD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH35">
+        <v>1</v>
+      </c>
+      <c r="CI35">
+        <v>0</v>
+      </c>
+      <c r="CJ35">
         <v>0</v>
       </c>
     </row>
@@ -10243,13 +10457,13 @@
         <v>0</v>
       </c>
       <c r="BM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN36">
         <v>0</v>
       </c>
       <c r="BO36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP36">
         <v>0</v>
@@ -10258,13 +10472,13 @@
         <v>0</v>
       </c>
       <c r="BR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS36">
         <v>0</v>
       </c>
       <c r="BT36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU36">
         <v>0</v>
@@ -10288,24 +10502,30 @@
         <v>0</v>
       </c>
       <c r="CB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC36">
         <v>0</v>
       </c>
       <c r="CD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF36">
         <v>0</v>
       </c>
       <c r="CG36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH36">
+        <v>0</v>
+      </c>
+      <c r="CI36">
+        <v>0</v>
+      </c>
+      <c r="CJ36">
         <v>0</v>
       </c>
     </row>
@@ -10458,13 +10678,13 @@
         <v>0</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37">
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW37">
         <v>0</v>
@@ -10515,13 +10735,13 @@
         <v>0</v>
       </c>
       <c r="BM37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN37">
         <v>0</v>
       </c>
       <c r="BO37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP37">
         <v>0</v>
@@ -10530,13 +10750,13 @@
         <v>0</v>
       </c>
       <c r="BR37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS37">
         <v>0</v>
       </c>
       <c r="BT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU37">
         <v>0</v>
@@ -10560,24 +10780,30 @@
         <v>0</v>
       </c>
       <c r="CB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC37">
         <v>0</v>
       </c>
       <c r="CD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF37">
         <v>0</v>
       </c>
       <c r="CG37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH37">
+        <v>0</v>
+      </c>
+      <c r="CI37">
+        <v>0</v>
+      </c>
+      <c r="CJ37">
         <v>0</v>
       </c>
     </row>
@@ -10772,13 +10998,13 @@
         <v>0</v>
       </c>
       <c r="BH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI38">
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK38">
         <v>0</v>
@@ -10787,28 +11013,28 @@
         <v>0</v>
       </c>
       <c r="BM38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU38">
         <v>0</v>
@@ -10832,24 +11058,30 @@
         <v>0</v>
       </c>
       <c r="CB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC38">
         <v>0</v>
       </c>
       <c r="CD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF38">
         <v>0</v>
       </c>
       <c r="CG38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH38">
+        <v>0</v>
+      </c>
+      <c r="CI38">
+        <v>0</v>
+      </c>
+      <c r="CJ38">
         <v>0</v>
       </c>
     </row>
@@ -11053,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="BK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL39">
         <v>0</v>
@@ -11065,31 +11297,31 @@
         <v>0</v>
       </c>
       <c r="BO39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP39">
         <v>0</v>
       </c>
       <c r="BQ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV39">
         <v>0</v>
       </c>
       <c r="BW39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX39">
         <v>0</v>
@@ -11104,24 +11336,30 @@
         <v>0</v>
       </c>
       <c r="CB39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC39">
         <v>0</v>
       </c>
       <c r="CD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF39">
         <v>0</v>
       </c>
       <c r="CG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH39">
+        <v>0</v>
+      </c>
+      <c r="CI39">
+        <v>0</v>
+      </c>
+      <c r="CJ39">
         <v>0</v>
       </c>
     </row>
@@ -11274,13 +11512,13 @@
         <v>0</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40">
         <v>0</v>
       </c>
       <c r="AV40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW40">
         <v>0</v>
@@ -11325,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="BK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL40">
         <v>0</v>
@@ -11337,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="BO40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP40">
         <v>0</v>
@@ -11346,13 +11584,13 @@
         <v>0</v>
       </c>
       <c r="BR40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS40">
         <v>0</v>
       </c>
       <c r="BT40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU40">
         <v>0</v>
@@ -11376,24 +11614,30 @@
         <v>0</v>
       </c>
       <c r="CB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC40">
         <v>0</v>
       </c>
       <c r="CD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF40">
         <v>0</v>
       </c>
       <c r="CG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH40">
+        <v>0</v>
+      </c>
+      <c r="CI40">
+        <v>0</v>
+      </c>
+      <c r="CJ40">
         <v>0</v>
       </c>
     </row>
@@ -11531,10 +11775,10 @@
         <v>0</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -11603,13 +11847,13 @@
         <v>0</v>
       </c>
       <c r="BM41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN41">
         <v>0</v>
       </c>
       <c r="BO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP41">
         <v>0</v>
@@ -11618,13 +11862,13 @@
         <v>0</v>
       </c>
       <c r="BR41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS41">
         <v>0</v>
       </c>
       <c r="BT41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU41">
         <v>0</v>
@@ -11648,24 +11892,30 @@
         <v>0</v>
       </c>
       <c r="CB41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC41">
         <v>0</v>
       </c>
       <c r="CD41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF41">
         <v>0</v>
       </c>
       <c r="CG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH41">
+        <v>0</v>
+      </c>
+      <c r="CI41">
+        <v>0</v>
+      </c>
+      <c r="CJ41">
         <v>0</v>
       </c>
     </row>
@@ -11803,10 +12053,10 @@
         <v>0</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0</v>
@@ -11863,25 +12113,25 @@
         <v>0</v>
       </c>
       <c r="BI42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ42">
         <v>0</v>
       </c>
       <c r="BK42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL42">
         <v>0</v>
       </c>
       <c r="BM42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN42">
         <v>0</v>
       </c>
       <c r="BO42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP42">
         <v>0</v>
@@ -11890,13 +12140,13 @@
         <v>0</v>
       </c>
       <c r="BR42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS42">
         <v>0</v>
       </c>
       <c r="BT42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU42">
         <v>0</v>
@@ -11920,24 +12170,30 @@
         <v>0</v>
       </c>
       <c r="CB42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC42">
         <v>0</v>
       </c>
       <c r="CD42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF42">
         <v>0</v>
       </c>
       <c r="CG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH42">
+        <v>0</v>
+      </c>
+      <c r="CI42">
+        <v>0</v>
+      </c>
+      <c r="CJ42">
         <v>0</v>
       </c>
     </row>
@@ -12075,10 +12331,10 @@
         <v>0</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -12132,13 +12388,13 @@
         <v>0</v>
       </c>
       <c r="BH43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI43">
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK43">
         <v>0</v>
@@ -12147,13 +12403,13 @@
         <v>0</v>
       </c>
       <c r="BM43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43">
         <v>0</v>
       </c>
       <c r="BO43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP43">
         <v>0</v>
@@ -12162,13 +12418,13 @@
         <v>0</v>
       </c>
       <c r="BR43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS43">
         <v>0</v>
       </c>
       <c r="BT43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU43">
         <v>0</v>
@@ -12192,24 +12448,30 @@
         <v>0</v>
       </c>
       <c r="CB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC43">
         <v>0</v>
       </c>
       <c r="CD43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF43">
         <v>0</v>
       </c>
       <c r="CG43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH43">
+        <v>0</v>
+      </c>
+      <c r="CI43">
+        <v>0</v>
+      </c>
+      <c r="CJ43">
         <v>0</v>
       </c>
     </row>
@@ -12362,13 +12624,13 @@
         <v>0</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44">
         <v>0</v>
       </c>
       <c r="AV44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW44">
         <v>0</v>
@@ -12419,13 +12681,13 @@
         <v>0</v>
       </c>
       <c r="BM44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN44">
         <v>0</v>
       </c>
       <c r="BO44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP44">
         <v>0</v>
@@ -12434,13 +12696,13 @@
         <v>0</v>
       </c>
       <c r="BR44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS44">
         <v>0</v>
       </c>
       <c r="BT44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU44">
         <v>0</v>
@@ -12464,13 +12726,13 @@
         <v>0</v>
       </c>
       <c r="CB44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC44">
         <v>0</v>
       </c>
       <c r="CD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE44">
         <v>0</v>
@@ -12482,6 +12744,12 @@
         <v>0</v>
       </c>
       <c r="CH44">
+        <v>0</v>
+      </c>
+      <c r="CI44">
+        <v>0</v>
+      </c>
+      <c r="CJ44">
         <v>0</v>
       </c>
     </row>
@@ -12685,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="BK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL45">
         <v>0</v>
@@ -12697,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="BO45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP45">
         <v>0</v>
@@ -12706,13 +12974,13 @@
         <v>0</v>
       </c>
       <c r="BR45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS45">
         <v>0</v>
       </c>
       <c r="BT45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU45">
         <v>0</v>
@@ -12736,13 +13004,13 @@
         <v>0</v>
       </c>
       <c r="CB45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC45">
         <v>0</v>
       </c>
       <c r="CD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE45">
         <v>0</v>
@@ -12754,6 +13022,12 @@
         <v>0</v>
       </c>
       <c r="CH45">
+        <v>0</v>
+      </c>
+      <c r="CI45">
+        <v>0</v>
+      </c>
+      <c r="CJ45">
         <v>0</v>
       </c>
     </row>
@@ -12906,13 +13180,13 @@
         <v>0</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU46">
         <v>0</v>
       </c>
       <c r="AV46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW46">
         <v>0</v>
@@ -12963,13 +13237,13 @@
         <v>0</v>
       </c>
       <c r="BM46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN46">
         <v>0</v>
       </c>
       <c r="BO46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP46">
         <v>0</v>
@@ -13008,13 +13282,13 @@
         <v>0</v>
       </c>
       <c r="CB46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC46">
         <v>0</v>
       </c>
       <c r="CD46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE46">
         <v>0</v>
@@ -13026,6 +13300,12 @@
         <v>0</v>
       </c>
       <c r="CH46">
+        <v>0</v>
+      </c>
+      <c r="CI46">
+        <v>0</v>
+      </c>
+      <c r="CJ46">
         <v>0</v>
       </c>
     </row>
@@ -13223,25 +13503,25 @@
         <v>0</v>
       </c>
       <c r="BI47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ47">
         <v>0</v>
       </c>
       <c r="BK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL47">
         <v>0</v>
       </c>
       <c r="BM47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47">
         <v>0</v>
       </c>
       <c r="BO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP47">
         <v>0</v>
@@ -13250,13 +13530,13 @@
         <v>0</v>
       </c>
       <c r="BR47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS47">
         <v>0</v>
       </c>
       <c r="BT47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU47">
         <v>0</v>
@@ -13280,16 +13560,16 @@
         <v>0</v>
       </c>
       <c r="CB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC47">
         <v>0</v>
       </c>
       <c r="CD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF47">
         <v>0</v>
@@ -13298,6 +13578,12 @@
         <v>1</v>
       </c>
       <c r="CH47">
+        <v>0</v>
+      </c>
+      <c r="CI47">
+        <v>1</v>
+      </c>
+      <c r="CJ47">
         <v>0</v>
       </c>
     </row>
@@ -13426,10 +13712,10 @@
         <v>1</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -13501,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="BK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL48">
         <v>0</v>
@@ -13513,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="BO48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP48">
         <v>0</v>
@@ -13522,13 +13808,13 @@
         <v>0</v>
       </c>
       <c r="BR48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS48">
         <v>0</v>
       </c>
       <c r="BT48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU48">
         <v>0</v>
@@ -13552,13 +13838,13 @@
         <v>0</v>
       </c>
       <c r="CB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC48">
         <v>0</v>
       </c>
       <c r="CD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE48">
         <v>0</v>
@@ -13570,6 +13856,12 @@
         <v>0</v>
       </c>
       <c r="CH48">
+        <v>0</v>
+      </c>
+      <c r="CI48">
+        <v>0</v>
+      </c>
+      <c r="CJ48">
         <v>0</v>
       </c>
     </row>
@@ -13743,13 +14035,13 @@
         <v>0</v>
       </c>
       <c r="BA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49">
         <v>0</v>
       </c>
       <c r="BC49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD49">
         <v>0</v>
@@ -13767,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="BI49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49">
         <v>0</v>
@@ -13785,22 +14077,22 @@
         <v>0</v>
       </c>
       <c r="BO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP49">
         <v>0</v>
       </c>
       <c r="BQ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU49">
         <v>0</v>
@@ -13824,13 +14116,13 @@
         <v>0</v>
       </c>
       <c r="CB49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC49">
         <v>0</v>
       </c>
       <c r="CD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE49">
         <v>0</v>
@@ -13842,6 +14134,12 @@
         <v>0</v>
       </c>
       <c r="CH49">
+        <v>0</v>
+      </c>
+      <c r="CI49">
+        <v>0</v>
+      </c>
+      <c r="CJ49">
         <v>0</v>
       </c>
     </row>
@@ -13994,13 +14292,13 @@
         <v>0</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU50">
         <v>0</v>
       </c>
       <c r="AV50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW50">
         <v>0</v>
@@ -14018,13 +14316,13 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC50">
         <v>0</v>
       </c>
       <c r="BD50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE50">
         <v>0</v>
@@ -14051,13 +14349,13 @@
         <v>0</v>
       </c>
       <c r="BM50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN50">
         <v>0</v>
       </c>
       <c r="BO50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP50">
         <v>0</v>
@@ -14066,13 +14364,13 @@
         <v>0</v>
       </c>
       <c r="BR50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS50">
         <v>0</v>
       </c>
       <c r="BT50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU50">
         <v>0</v>
@@ -14096,24 +14394,30 @@
         <v>0</v>
       </c>
       <c r="CB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC50">
         <v>0</v>
       </c>
       <c r="CD50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF50">
         <v>0</v>
       </c>
       <c r="CG50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH50">
+        <v>0</v>
+      </c>
+      <c r="CI50">
+        <v>0</v>
+      </c>
+      <c r="CJ50">
         <v>0</v>
       </c>
     </row>
@@ -14266,13 +14570,13 @@
         <v>0</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU51">
         <v>0</v>
       </c>
       <c r="AV51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW51">
         <v>0</v>
@@ -14290,13 +14594,13 @@
         <v>0</v>
       </c>
       <c r="BB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51">
         <v>0</v>
       </c>
       <c r="BD51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE51">
         <v>0</v>
@@ -14308,13 +14612,13 @@
         <v>0</v>
       </c>
       <c r="BH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI51">
         <v>0</v>
       </c>
       <c r="BJ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK51">
         <v>0</v>
@@ -14323,13 +14627,13 @@
         <v>0</v>
       </c>
       <c r="BM51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51">
         <v>0</v>
       </c>
       <c r="BO51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP51">
         <v>0</v>
@@ -14338,13 +14642,13 @@
         <v>0</v>
       </c>
       <c r="BR51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS51">
         <v>0</v>
       </c>
       <c r="BT51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU51">
         <v>0</v>
@@ -14368,24 +14672,30 @@
         <v>0</v>
       </c>
       <c r="CB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC51">
         <v>0</v>
       </c>
       <c r="CD51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF51">
         <v>0</v>
       </c>
       <c r="CG51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH51">
+        <v>0</v>
+      </c>
+      <c r="CI51">
+        <v>0</v>
+      </c>
+      <c r="CJ51">
         <v>0</v>
       </c>
     </row>
@@ -14595,13 +14905,13 @@
         <v>0</v>
       </c>
       <c r="BM52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN52">
         <v>0</v>
       </c>
       <c r="BO52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP52">
         <v>0</v>
@@ -14610,13 +14920,13 @@
         <v>0</v>
       </c>
       <c r="BR52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS52">
         <v>0</v>
       </c>
       <c r="BT52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU52">
         <v>0</v>
@@ -14640,13 +14950,13 @@
         <v>0</v>
       </c>
       <c r="CB52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC52">
         <v>0</v>
       </c>
       <c r="CD52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE52">
         <v>0</v>
@@ -14658,6 +14968,12 @@
         <v>0</v>
       </c>
       <c r="CH52">
+        <v>0</v>
+      </c>
+      <c r="CI52">
+        <v>0</v>
+      </c>
+      <c r="CJ52">
         <v>0</v>
       </c>
     </row>
@@ -14822,13 +15138,13 @@
         <v>0</v>
       </c>
       <c r="AX53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY53">
         <v>0</v>
       </c>
       <c r="AZ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA53">
         <v>0</v>
@@ -14867,13 +15183,13 @@
         <v>0</v>
       </c>
       <c r="BM53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN53">
         <v>0</v>
       </c>
       <c r="BO53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP53">
         <v>0</v>
@@ -14882,13 +15198,13 @@
         <v>0</v>
       </c>
       <c r="BR53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS53">
         <v>0</v>
       </c>
       <c r="BT53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU53">
         <v>0</v>
@@ -14912,24 +15228,30 @@
         <v>0</v>
       </c>
       <c r="CB53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC53">
         <v>0</v>
       </c>
       <c r="CD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF53">
         <v>0</v>
       </c>
       <c r="CG53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH53">
+        <v>0</v>
+      </c>
+      <c r="CI53">
+        <v>0</v>
+      </c>
+      <c r="CJ53">
         <v>0</v>
       </c>
     </row>
@@ -15091,13 +15413,13 @@
         <v>0</v>
       </c>
       <c r="AW54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54">
         <v>0</v>
       </c>
       <c r="AY54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ54">
         <v>0</v>
@@ -15130,31 +15452,31 @@
         <v>0</v>
       </c>
       <c r="BJ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54">
         <v>0</v>
       </c>
       <c r="BL54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN54">
         <v>0</v>
       </c>
       <c r="BO54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP54">
         <v>0</v>
       </c>
       <c r="BQ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS54">
         <v>1</v>
@@ -15163,13 +15485,13 @@
         <v>1</v>
       </c>
       <c r="BU54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX54">
         <v>0</v>
@@ -15181,27 +15503,33 @@
         <v>0</v>
       </c>
       <c r="CA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC54">
         <v>0</v>
       </c>
       <c r="CD54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF54">
         <v>0</v>
       </c>
       <c r="CG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH54">
+        <v>0</v>
+      </c>
+      <c r="CI54">
+        <v>0</v>
+      </c>
+      <c r="CJ54">
         <v>0</v>
       </c>
     </row>
@@ -15411,13 +15739,13 @@
         <v>0</v>
       </c>
       <c r="BM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55">
         <v>0</v>
       </c>
       <c r="BO55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP55">
         <v>0</v>
@@ -15426,13 +15754,13 @@
         <v>0</v>
       </c>
       <c r="BR55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS55">
         <v>0</v>
       </c>
       <c r="BT55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU55">
         <v>0</v>
@@ -15456,13 +15784,13 @@
         <v>0</v>
       </c>
       <c r="CB55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC55">
         <v>0</v>
       </c>
       <c r="CD55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE55">
         <v>0</v>
@@ -15474,6 +15802,12 @@
         <v>0</v>
       </c>
       <c r="CH55">
+        <v>0</v>
+      </c>
+      <c r="CI55">
+        <v>0</v>
+      </c>
+      <c r="CJ55">
         <v>0</v>
       </c>
     </row>
@@ -15632,13 +15966,13 @@
         <v>0</v>
       </c>
       <c r="AV56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW56">
         <v>0</v>
       </c>
       <c r="AX56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56">
         <v>0</v>
@@ -15683,13 +16017,13 @@
         <v>0</v>
       </c>
       <c r="BM56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56">
         <v>0</v>
       </c>
       <c r="BO56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP56">
         <v>0</v>
@@ -15698,13 +16032,13 @@
         <v>0</v>
       </c>
       <c r="BR56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS56">
         <v>0</v>
       </c>
       <c r="BT56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU56">
         <v>0</v>
@@ -15728,13 +16062,13 @@
         <v>0</v>
       </c>
       <c r="CB56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC56">
         <v>0</v>
       </c>
       <c r="CD56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE56">
         <v>0</v>
@@ -15746,6 +16080,12 @@
         <v>0</v>
       </c>
       <c r="CH56">
+        <v>0</v>
+      </c>
+      <c r="CI56">
+        <v>0</v>
+      </c>
+      <c r="CJ56">
         <v>0</v>
       </c>
     </row>
@@ -15874,10 +16214,10 @@
         <v>1</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -15913,13 +16253,13 @@
         <v>0</v>
       </c>
       <c r="AY57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57">
         <v>0</v>
       </c>
       <c r="BA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57">
         <v>0</v>
@@ -15955,13 +16295,13 @@
         <v>0</v>
       </c>
       <c r="BM57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57">
         <v>0</v>
       </c>
       <c r="BO57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP57">
         <v>0</v>
@@ -15970,13 +16310,13 @@
         <v>0</v>
       </c>
       <c r="BR57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS57">
         <v>0</v>
       </c>
       <c r="BT57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU57">
         <v>0</v>
@@ -16000,13 +16340,13 @@
         <v>0</v>
       </c>
       <c r="CB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC57">
         <v>0</v>
       </c>
       <c r="CD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE57">
         <v>0</v>
@@ -16018,6 +16358,12 @@
         <v>0</v>
       </c>
       <c r="CH57">
+        <v>0</v>
+      </c>
+      <c r="CI57">
+        <v>0</v>
+      </c>
+      <c r="CJ57">
         <v>0</v>
       </c>
     </row>
@@ -16146,10 +16492,10 @@
         <v>1</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -16170,13 +16516,13 @@
         <v>0</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU58">
         <v>0</v>
       </c>
       <c r="AV58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW58">
         <v>0</v>
@@ -16227,13 +16573,13 @@
         <v>0</v>
       </c>
       <c r="BM58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN58">
         <v>0</v>
       </c>
       <c r="BO58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP58">
         <v>0</v>
@@ -16242,13 +16588,13 @@
         <v>0</v>
       </c>
       <c r="BR58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS58">
         <v>0</v>
       </c>
       <c r="BT58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU58">
         <v>0</v>
@@ -16272,13 +16618,13 @@
         <v>0</v>
       </c>
       <c r="CB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC58">
         <v>0</v>
       </c>
       <c r="CD58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE58">
         <v>0</v>
@@ -16290,6 +16636,12 @@
         <v>0</v>
       </c>
       <c r="CH58">
+        <v>0</v>
+      </c>
+      <c r="CI58">
+        <v>0</v>
+      </c>
+      <c r="CJ58">
         <v>0</v>
       </c>
     </row>
@@ -16418,10 +16770,10 @@
         <v>1</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -16460,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="AZ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59">
         <v>0</v>
@@ -16472,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="BD59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE59">
         <v>0</v>
@@ -16499,13 +16851,13 @@
         <v>0</v>
       </c>
       <c r="BM59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN59">
         <v>0</v>
       </c>
       <c r="BO59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP59">
         <v>0</v>
@@ -16514,13 +16866,13 @@
         <v>0</v>
       </c>
       <c r="BR59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS59">
         <v>0</v>
       </c>
       <c r="BT59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU59">
         <v>0</v>
@@ -16544,13 +16896,13 @@
         <v>0</v>
       </c>
       <c r="CB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC59">
         <v>0</v>
       </c>
       <c r="CD59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE59">
         <v>0</v>
@@ -16562,6 +16914,12 @@
         <v>0</v>
       </c>
       <c r="CH59">
+        <v>0</v>
+      </c>
+      <c r="CI59">
+        <v>0</v>
+      </c>
+      <c r="CJ59">
         <v>0</v>
       </c>
     </row>
@@ -16690,10 +17048,10 @@
         <v>1</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -16732,13 +17090,13 @@
         <v>0</v>
       </c>
       <c r="AZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60">
         <v>0</v>
       </c>
       <c r="BB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC60">
         <v>0</v>
@@ -16771,13 +17129,13 @@
         <v>0</v>
       </c>
       <c r="BM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60">
         <v>0</v>
       </c>
       <c r="BO60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP60">
         <v>0</v>
@@ -16786,13 +17144,13 @@
         <v>0</v>
       </c>
       <c r="BR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS60">
         <v>0</v>
       </c>
       <c r="BT60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU60">
         <v>0</v>
@@ -16816,13 +17174,13 @@
         <v>0</v>
       </c>
       <c r="CB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC60">
         <v>0</v>
       </c>
       <c r="CD60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE60">
         <v>0</v>
@@ -16834,6 +17192,12 @@
         <v>0</v>
       </c>
       <c r="CH60">
+        <v>0</v>
+      </c>
+      <c r="CI60">
+        <v>0</v>
+      </c>
+      <c r="CJ60">
         <v>0</v>
       </c>
     </row>
@@ -16962,10 +17326,10 @@
         <v>1</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -17004,13 +17368,13 @@
         <v>0</v>
       </c>
       <c r="AZ61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA61">
         <v>0</v>
       </c>
       <c r="BB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC61">
         <v>0</v>
@@ -17043,13 +17407,13 @@
         <v>0</v>
       </c>
       <c r="BM61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN61">
         <v>0</v>
       </c>
       <c r="BO61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP61">
         <v>0</v>
@@ -17058,13 +17422,13 @@
         <v>0</v>
       </c>
       <c r="BR61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS61">
         <v>0</v>
       </c>
       <c r="BT61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU61">
         <v>0</v>
@@ -17088,13 +17452,13 @@
         <v>0</v>
       </c>
       <c r="CB61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC61">
         <v>0</v>
       </c>
       <c r="CD61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE61">
         <v>0</v>
@@ -17106,6 +17470,12 @@
         <v>0</v>
       </c>
       <c r="CH61">
+        <v>0</v>
+      </c>
+      <c r="CI61">
+        <v>0</v>
+      </c>
+      <c r="CJ61">
         <v>0</v>
       </c>
     </row>
@@ -17234,10 +17604,10 @@
         <v>1</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -17258,13 +17628,13 @@
         <v>0</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU62">
         <v>0</v>
       </c>
       <c r="AV62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW62">
         <v>0</v>
@@ -17276,13 +17646,13 @@
         <v>0</v>
       </c>
       <c r="AZ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA62">
         <v>0</v>
       </c>
       <c r="BB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC62">
         <v>0</v>
@@ -17315,13 +17685,13 @@
         <v>0</v>
       </c>
       <c r="BM62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62">
         <v>0</v>
       </c>
       <c r="BO62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP62">
         <v>0</v>
@@ -17330,13 +17700,13 @@
         <v>0</v>
       </c>
       <c r="BR62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS62">
         <v>0</v>
       </c>
       <c r="BT62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU62">
         <v>0</v>
@@ -17360,13 +17730,13 @@
         <v>0</v>
       </c>
       <c r="CB62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC62">
         <v>0</v>
       </c>
       <c r="CD62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE62">
         <v>0</v>
@@ -17378,6 +17748,12 @@
         <v>0</v>
       </c>
       <c r="CH62">
+        <v>0</v>
+      </c>
+      <c r="CI62">
+        <v>0</v>
+      </c>
+      <c r="CJ62">
         <v>0</v>
       </c>
     </row>
@@ -17506,10 +17882,10 @@
         <v>1</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -17530,13 +17906,13 @@
         <v>0</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63">
         <v>0</v>
       </c>
       <c r="AV63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW63">
         <v>0</v>
@@ -17548,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA63">
         <v>0</v>
@@ -17560,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="BD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE63">
         <v>0</v>
@@ -17587,13 +17963,13 @@
         <v>0</v>
       </c>
       <c r="BM63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63">
         <v>0</v>
       </c>
       <c r="BO63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP63">
         <v>0</v>
@@ -17602,13 +17978,13 @@
         <v>0</v>
       </c>
       <c r="BR63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS63">
         <v>0</v>
       </c>
       <c r="BT63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU63">
         <v>0</v>
@@ -17632,13 +18008,13 @@
         <v>0</v>
       </c>
       <c r="CB63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC63">
         <v>0</v>
       </c>
       <c r="CD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE63">
         <v>0</v>
@@ -17650,6 +18026,12 @@
         <v>0</v>
       </c>
       <c r="CH63">
+        <v>0</v>
+      </c>
+      <c r="CI63">
+        <v>0</v>
+      </c>
+      <c r="CJ63">
         <v>0</v>
       </c>
     </row>
@@ -17778,10 +18160,10 @@
         <v>1</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN64">
         <v>0</v>
@@ -17802,13 +18184,13 @@
         <v>0</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU64">
         <v>0</v>
       </c>
       <c r="AV64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW64">
         <v>0</v>
@@ -17820,13 +18202,13 @@
         <v>0</v>
       </c>
       <c r="AZ64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64">
         <v>0</v>
       </c>
       <c r="BB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC64">
         <v>0</v>
@@ -17859,13 +18241,13 @@
         <v>0</v>
       </c>
       <c r="BM64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64">
         <v>0</v>
       </c>
       <c r="BO64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP64">
         <v>0</v>
@@ -17874,13 +18256,13 @@
         <v>0</v>
       </c>
       <c r="BR64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS64">
         <v>0</v>
       </c>
       <c r="BT64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU64">
         <v>0</v>
@@ -17904,13 +18286,13 @@
         <v>0</v>
       </c>
       <c r="CB64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC64">
         <v>0</v>
       </c>
       <c r="CD64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE64">
         <v>0</v>
@@ -17922,6 +18304,12 @@
         <v>0</v>
       </c>
       <c r="CH64">
+        <v>0</v>
+      </c>
+      <c r="CI64">
+        <v>0</v>
+      </c>
+      <c r="CJ64">
         <v>0</v>
       </c>
     </row>
@@ -18050,13 +18438,13 @@
         <v>1</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
         <v>1</v>
       </c>
       <c r="AN65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO65">
         <v>0</v>
@@ -18074,13 +18462,13 @@
         <v>0</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU65">
         <v>0</v>
       </c>
       <c r="AV65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW65">
         <v>0</v>
@@ -18092,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="AZ65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA65">
         <v>0</v>
@@ -18104,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="BD65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE65">
         <v>0</v>
@@ -18131,28 +18519,28 @@
         <v>0</v>
       </c>
       <c r="BM65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65">
         <v>1</v>
       </c>
       <c r="BP65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ65">
         <v>1</v>
       </c>
       <c r="BR65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU65">
         <v>0</v>
@@ -18176,13 +18564,13 @@
         <v>0</v>
       </c>
       <c r="CB65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC65">
         <v>0</v>
       </c>
       <c r="CD65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE65">
         <v>0</v>
@@ -18194,6 +18582,12 @@
         <v>0</v>
       </c>
       <c r="CH65">
+        <v>0</v>
+      </c>
+      <c r="CI65">
+        <v>0</v>
+      </c>
+      <c r="CJ65">
         <v>0</v>
       </c>
     </row>
@@ -18322,10 +18716,10 @@
         <v>1</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN66">
         <v>0</v>
@@ -18346,13 +18740,13 @@
         <v>0</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66">
         <v>0</v>
       </c>
       <c r="AV66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW66">
         <v>0</v>
@@ -18364,13 +18758,13 @@
         <v>0</v>
       </c>
       <c r="AZ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA66">
         <v>0</v>
       </c>
       <c r="BB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC66">
         <v>0</v>
@@ -18403,13 +18797,13 @@
         <v>0</v>
       </c>
       <c r="BM66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66">
         <v>0</v>
       </c>
       <c r="BO66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP66">
         <v>0</v>
@@ -18418,25 +18812,25 @@
         <v>0</v>
       </c>
       <c r="BR66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS66">
         <v>0</v>
       </c>
       <c r="BT66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU66">
         <v>0</v>
       </c>
       <c r="BV66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW66">
         <v>0</v>
       </c>
       <c r="BX66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY66">
         <v>0</v>
@@ -18448,13 +18842,13 @@
         <v>0</v>
       </c>
       <c r="CB66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC66">
         <v>0</v>
       </c>
       <c r="CD66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE66">
         <v>0</v>
@@ -18466,6 +18860,12 @@
         <v>0</v>
       </c>
       <c r="CH66">
+        <v>0</v>
+      </c>
+      <c r="CI66">
+        <v>0</v>
+      </c>
+      <c r="CJ66">
         <v>0</v>
       </c>
     </row>
@@ -18594,10 +18994,10 @@
         <v>1</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -18618,16 +19018,16 @@
         <v>0</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX67">
         <v>0</v>
@@ -18636,13 +19036,13 @@
         <v>0</v>
       </c>
       <c r="AZ67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA67">
         <v>0</v>
       </c>
       <c r="BB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC67">
         <v>0</v>
@@ -18675,28 +19075,28 @@
         <v>0</v>
       </c>
       <c r="BM67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67">
         <v>0</v>
       </c>
       <c r="BO67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP67">
         <v>0</v>
       </c>
       <c r="BQ67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU67">
         <v>0</v>
@@ -18720,13 +19120,13 @@
         <v>0</v>
       </c>
       <c r="CB67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC67">
         <v>0</v>
       </c>
       <c r="CD67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE67">
         <v>0</v>
@@ -18738,6 +19138,12 @@
         <v>0</v>
       </c>
       <c r="CH67">
+        <v>0</v>
+      </c>
+      <c r="CI67">
+        <v>0</v>
+      </c>
+      <c r="CJ67">
         <v>0</v>
       </c>
     </row>
@@ -18866,10 +19272,10 @@
         <v>1</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -18890,13 +19296,13 @@
         <v>0</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU68">
         <v>0</v>
       </c>
       <c r="AV68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW68">
         <v>0</v>
@@ -18908,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="AZ68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA68">
         <v>0</v>
@@ -18920,7 +19326,7 @@
         <v>0</v>
       </c>
       <c r="BD68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE68">
         <v>0</v>
@@ -18947,28 +19353,28 @@
         <v>0</v>
       </c>
       <c r="BM68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68">
         <v>1</v>
       </c>
       <c r="BP68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ68">
         <v>1</v>
       </c>
       <c r="BR68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU68">
         <v>0</v>
@@ -18992,13 +19398,13 @@
         <v>0</v>
       </c>
       <c r="CB68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC68">
         <v>0</v>
       </c>
       <c r="CD68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE68">
         <v>0</v>
@@ -19010,6 +19416,12 @@
         <v>0</v>
       </c>
       <c r="CH68">
+        <v>0</v>
+      </c>
+      <c r="CI68">
+        <v>0</v>
+      </c>
+      <c r="CJ68">
         <v>0</v>
       </c>
     </row>
@@ -19138,10 +19550,10 @@
         <v>1</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69">
         <v>0</v>
@@ -19159,16 +19571,16 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW69">
         <v>0</v>
@@ -19180,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="AZ69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA69">
         <v>0</v>
@@ -19192,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="BD69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE69">
         <v>0</v>
@@ -19219,13 +19631,13 @@
         <v>0</v>
       </c>
       <c r="BM69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN69">
         <v>0</v>
       </c>
       <c r="BO69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP69">
         <v>0</v>
@@ -19234,13 +19646,13 @@
         <v>0</v>
       </c>
       <c r="BR69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS69">
         <v>0</v>
       </c>
       <c r="BT69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU69">
         <v>0</v>
@@ -19264,13 +19676,13 @@
         <v>0</v>
       </c>
       <c r="CB69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC69">
         <v>0</v>
       </c>
       <c r="CD69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE69">
         <v>0</v>
@@ -19282,6 +19694,12 @@
         <v>0</v>
       </c>
       <c r="CH69">
+        <v>0</v>
+      </c>
+      <c r="CI69">
+        <v>0</v>
+      </c>
+      <c r="CJ69">
         <v>0</v>
       </c>
     </row>
@@ -19410,10 +19828,10 @@
         <v>1</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70">
         <v>0</v>
@@ -19434,13 +19852,13 @@
         <v>0</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU70">
         <v>0</v>
       </c>
       <c r="AV70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW70">
         <v>0</v>
@@ -19452,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="AZ70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA70">
         <v>0</v>
@@ -19464,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="BD70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE70">
         <v>0</v>
@@ -19491,13 +19909,13 @@
         <v>0</v>
       </c>
       <c r="BM70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN70">
         <v>0</v>
       </c>
       <c r="BO70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP70">
         <v>0</v>
@@ -19506,13 +19924,13 @@
         <v>0</v>
       </c>
       <c r="BR70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS70">
         <v>0</v>
       </c>
       <c r="BT70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU70">
         <v>0</v>
@@ -19536,13 +19954,13 @@
         <v>0</v>
       </c>
       <c r="CB70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC70">
         <v>0</v>
       </c>
       <c r="CD70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE70">
         <v>0</v>
@@ -19554,6 +19972,12 @@
         <v>0</v>
       </c>
       <c r="CH70">
+        <v>0</v>
+      </c>
+      <c r="CI70">
+        <v>0</v>
+      </c>
+      <c r="CJ70">
         <v>0</v>
       </c>
     </row>
@@ -19682,10 +20106,10 @@
         <v>1</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN71">
         <v>0</v>
@@ -19706,13 +20130,13 @@
         <v>0</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU71">
         <v>0</v>
       </c>
       <c r="AV71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW71">
         <v>0</v>
@@ -19724,13 +20148,13 @@
         <v>0</v>
       </c>
       <c r="AZ71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA71">
         <v>0</v>
       </c>
       <c r="BB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC71">
         <v>0</v>
@@ -19763,13 +20187,13 @@
         <v>0</v>
       </c>
       <c r="BM71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN71">
         <v>0</v>
       </c>
       <c r="BO71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP71">
         <v>0</v>
@@ -19778,13 +20202,13 @@
         <v>0</v>
       </c>
       <c r="BR71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS71">
         <v>0</v>
       </c>
       <c r="BT71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU71">
         <v>0</v>
@@ -19808,13 +20232,13 @@
         <v>0</v>
       </c>
       <c r="CB71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC71">
         <v>0</v>
       </c>
       <c r="CD71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE71">
         <v>0</v>
@@ -19826,6 +20250,12 @@
         <v>0</v>
       </c>
       <c r="CH71">
+        <v>0</v>
+      </c>
+      <c r="CI71">
+        <v>0</v>
+      </c>
+      <c r="CJ71">
         <v>0</v>
       </c>
     </row>
@@ -19954,10 +20384,10 @@
         <v>1</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN72">
         <v>0</v>
@@ -19978,25 +20408,25 @@
         <v>0</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU72">
         <v>0</v>
       </c>
       <c r="AV72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX72">
         <v>0</v>
       </c>
       <c r="AY72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA72">
         <v>0</v>
@@ -20008,7 +20438,7 @@
         <v>0</v>
       </c>
       <c r="BD72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE72">
         <v>0</v>
@@ -20035,13 +20465,13 @@
         <v>0</v>
       </c>
       <c r="BM72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN72">
         <v>0</v>
       </c>
       <c r="BO72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP72">
         <v>0</v>
@@ -20050,13 +20480,13 @@
         <v>0</v>
       </c>
       <c r="BR72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS72">
         <v>0</v>
       </c>
       <c r="BT72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU72">
         <v>0</v>
@@ -20080,13 +20510,13 @@
         <v>0</v>
       </c>
       <c r="CB72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC72">
         <v>0</v>
       </c>
       <c r="CD72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE72">
         <v>0</v>
@@ -20098,6 +20528,12 @@
         <v>0</v>
       </c>
       <c r="CH72">
+        <v>0</v>
+      </c>
+      <c r="CI72">
+        <v>0</v>
+      </c>
+      <c r="CJ72">
         <v>0</v>
       </c>
     </row>
@@ -20226,13 +20662,13 @@
         <v>1</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
         <v>1</v>
       </c>
       <c r="AN73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -20250,13 +20686,13 @@
         <v>0</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU73">
         <v>0</v>
       </c>
       <c r="AV73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW73">
         <v>0</v>
@@ -20268,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="AZ73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA73">
         <v>0</v>
@@ -20286,7 +20722,7 @@
         <v>0</v>
       </c>
       <c r="BF73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG73">
         <v>0</v>
@@ -20307,16 +20743,16 @@
         <v>0</v>
       </c>
       <c r="BM73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN73">
         <v>0</v>
       </c>
       <c r="BO73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ73">
         <v>0</v>
@@ -20328,7 +20764,7 @@
         <v>0</v>
       </c>
       <c r="BT73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU73">
         <v>0</v>
@@ -20352,13 +20788,13 @@
         <v>0</v>
       </c>
       <c r="CB73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC73">
         <v>0</v>
       </c>
       <c r="CD73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE73">
         <v>0</v>
@@ -20370,6 +20806,12 @@
         <v>0</v>
       </c>
       <c r="CH73">
+        <v>0</v>
+      </c>
+      <c r="CI73">
+        <v>0</v>
+      </c>
+      <c r="CJ73">
         <v>0</v>
       </c>
     </row>
@@ -20498,10 +20940,10 @@
         <v>1</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN74">
         <v>0</v>
@@ -20522,13 +20964,13 @@
         <v>0</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU74">
         <v>0</v>
       </c>
       <c r="AV74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW74">
         <v>0</v>
@@ -20540,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="AZ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA74">
         <v>0</v>
@@ -20552,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="BD74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE74">
         <v>0</v>
@@ -20579,16 +21021,16 @@
         <v>0</v>
       </c>
       <c r="BM74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN74">
         <v>0</v>
       </c>
       <c r="BO74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ74">
         <v>0</v>
@@ -20600,7 +21042,7 @@
         <v>0</v>
       </c>
       <c r="BT74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU74">
         <v>0</v>
@@ -20624,13 +21066,13 @@
         <v>0</v>
       </c>
       <c r="CB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC74">
         <v>0</v>
       </c>
       <c r="CD74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE74">
         <v>0</v>
@@ -20642,6 +21084,12 @@
         <v>0</v>
       </c>
       <c r="CH74">
+        <v>0</v>
+      </c>
+      <c r="CI74">
+        <v>0</v>
+      </c>
+      <c r="CJ74">
         <v>0</v>
       </c>
     </row>
@@ -20770,10 +21218,10 @@
         <v>1</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN75">
         <v>0</v>
@@ -20794,13 +21242,13 @@
         <v>0</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU75">
         <v>0</v>
       </c>
       <c r="AV75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW75">
         <v>0</v>
@@ -20812,7 +21260,7 @@
         <v>0</v>
       </c>
       <c r="AZ75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA75">
         <v>0</v>
@@ -20824,7 +21272,7 @@
         <v>0</v>
       </c>
       <c r="BD75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE75">
         <v>0</v>
@@ -20851,13 +21299,13 @@
         <v>0</v>
       </c>
       <c r="BM75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN75">
         <v>0</v>
       </c>
       <c r="BO75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP75">
         <v>0</v>
@@ -20866,13 +21314,13 @@
         <v>0</v>
       </c>
       <c r="BR75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS75">
         <v>0</v>
       </c>
       <c r="BT75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU75">
         <v>0</v>
@@ -20896,13 +21344,13 @@
         <v>0</v>
       </c>
       <c r="CB75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC75">
         <v>0</v>
       </c>
       <c r="CD75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE75">
         <v>0</v>
@@ -20914,6 +21362,12 @@
         <v>0</v>
       </c>
       <c r="CH75">
+        <v>0</v>
+      </c>
+      <c r="CI75">
+        <v>0</v>
+      </c>
+      <c r="CJ75">
         <v>0</v>
       </c>
     </row>
@@ -21042,13 +21496,13 @@
         <v>1</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
         <v>1</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO76">
         <v>0</v>
@@ -21066,7 +21520,7 @@
         <v>0</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU76">
         <v>0</v>
@@ -21078,19 +21532,19 @@
         <v>0</v>
       </c>
       <c r="AX76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY76">
         <v>0</v>
       </c>
       <c r="AZ76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA76">
         <v>0</v>
       </c>
       <c r="BB76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC76">
         <v>0</v>
@@ -21111,25 +21565,25 @@
         <v>0</v>
       </c>
       <c r="BI76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ76">
         <v>0</v>
       </c>
       <c r="BK76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL76">
         <v>0</v>
       </c>
       <c r="BM76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN76">
         <v>0</v>
       </c>
       <c r="BO76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP76">
         <v>0</v>
@@ -21138,13 +21592,13 @@
         <v>0</v>
       </c>
       <c r="BR76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS76">
         <v>0</v>
       </c>
       <c r="BT76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU76">
         <v>0</v>
@@ -21168,13 +21622,13 @@
         <v>0</v>
       </c>
       <c r="CB76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC76">
         <v>0</v>
       </c>
       <c r="CD76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE76">
         <v>0</v>
@@ -21186,6 +21640,12 @@
         <v>0</v>
       </c>
       <c r="CH76">
+        <v>0</v>
+      </c>
+      <c r="CI76">
+        <v>0</v>
+      </c>
+      <c r="CJ76">
         <v>0</v>
       </c>
     </row>
@@ -21314,10 +21774,10 @@
         <v>1</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN77">
         <v>0</v>
@@ -21338,13 +21798,13 @@
         <v>0</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU77">
         <v>0</v>
       </c>
       <c r="AV77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW77">
         <v>0</v>
@@ -21356,13 +21816,13 @@
         <v>0</v>
       </c>
       <c r="AZ77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA77">
         <v>0</v>
       </c>
       <c r="BB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC77">
         <v>0</v>
@@ -21389,7 +21849,7 @@
         <v>0</v>
       </c>
       <c r="BK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL77">
         <v>0</v>
@@ -21401,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="BO77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP77">
         <v>0</v>
@@ -21410,13 +21870,13 @@
         <v>0</v>
       </c>
       <c r="BR77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS77">
         <v>0</v>
       </c>
       <c r="BT77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU77">
         <v>0</v>
@@ -21440,7 +21900,7 @@
         <v>0</v>
       </c>
       <c r="CB77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC77">
         <v>0</v>
@@ -21452,12 +21912,18 @@
         <v>0</v>
       </c>
       <c r="CF77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG77">
         <v>0</v>
       </c>
       <c r="CH77">
+        <v>0</v>
+      </c>
+      <c r="CI77">
+        <v>0</v>
+      </c>
+      <c r="CJ77">
         <v>0</v>
       </c>
     </row>
@@ -21586,10 +22052,10 @@
         <v>1</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN78">
         <v>0</v>
@@ -21610,31 +22076,31 @@
         <v>0</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU78">
         <v>0</v>
       </c>
       <c r="AV78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX78">
         <v>0</v>
       </c>
       <c r="AY78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA78">
         <v>0</v>
       </c>
       <c r="BB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC78">
         <v>0</v>
@@ -21667,13 +22133,13 @@
         <v>0</v>
       </c>
       <c r="BM78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN78">
         <v>0</v>
       </c>
       <c r="BO78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP78">
         <v>0</v>
@@ -21682,22 +22148,22 @@
         <v>0</v>
       </c>
       <c r="BR78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS78">
         <v>0</v>
       </c>
       <c r="BT78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV78">
         <v>0</v>
       </c>
       <c r="BW78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX78">
         <v>0</v>
@@ -21712,13 +22178,13 @@
         <v>0</v>
       </c>
       <c r="CB78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC78">
         <v>0</v>
       </c>
       <c r="CD78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE78">
         <v>0</v>
@@ -21730,6 +22196,12 @@
         <v>0</v>
       </c>
       <c r="CH78">
+        <v>0</v>
+      </c>
+      <c r="CI78">
+        <v>0</v>
+      </c>
+      <c r="CJ78">
         <v>0</v>
       </c>
     </row>
@@ -21858,10 +22330,10 @@
         <v>1</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN79">
         <v>0</v>
@@ -21882,13 +22354,13 @@
         <v>0</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU79">
         <v>0</v>
       </c>
       <c r="AV79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW79">
         <v>0</v>
@@ -21900,7 +22372,7 @@
         <v>0</v>
       </c>
       <c r="AZ79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA79">
         <v>0</v>
@@ -21912,7 +22384,7 @@
         <v>0</v>
       </c>
       <c r="BD79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE79">
         <v>0</v>
@@ -21939,13 +22411,13 @@
         <v>0</v>
       </c>
       <c r="BM79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN79">
         <v>0</v>
       </c>
       <c r="BO79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP79">
         <v>0</v>
@@ -21954,13 +22426,13 @@
         <v>0</v>
       </c>
       <c r="BR79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS79">
         <v>0</v>
       </c>
       <c r="BT79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU79">
         <v>0</v>
@@ -21984,13 +22456,13 @@
         <v>0</v>
       </c>
       <c r="CB79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC79">
         <v>0</v>
       </c>
       <c r="CD79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE79">
         <v>0</v>
@@ -22002,6 +22474,12 @@
         <v>0</v>
       </c>
       <c r="CH79">
+        <v>0</v>
+      </c>
+      <c r="CI79">
+        <v>0</v>
+      </c>
+      <c r="CJ79">
         <v>0</v>
       </c>
     </row>
@@ -22130,10 +22608,10 @@
         <v>1</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN80">
         <v>0</v>
@@ -22154,13 +22632,13 @@
         <v>0</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU80">
         <v>0</v>
       </c>
       <c r="AV80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW80">
         <v>0</v>
@@ -22172,7 +22650,7 @@
         <v>0</v>
       </c>
       <c r="AZ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA80">
         <v>0</v>
@@ -22184,7 +22662,7 @@
         <v>0</v>
       </c>
       <c r="BD80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE80">
         <v>0</v>
@@ -22211,13 +22689,13 @@
         <v>0</v>
       </c>
       <c r="BM80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN80">
         <v>0</v>
       </c>
       <c r="BO80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP80">
         <v>0</v>
@@ -22226,13 +22704,13 @@
         <v>0</v>
       </c>
       <c r="BR80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS80">
         <v>0</v>
       </c>
       <c r="BT80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU80">
         <v>0</v>
@@ -22256,13 +22734,13 @@
         <v>0</v>
       </c>
       <c r="CB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC80">
         <v>0</v>
       </c>
       <c r="CD80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE80">
         <v>0</v>
@@ -22274,6 +22752,12 @@
         <v>0</v>
       </c>
       <c r="CH80">
+        <v>0</v>
+      </c>
+      <c r="CI80">
+        <v>0</v>
+      </c>
+      <c r="CJ80">
         <v>0</v>
       </c>
     </row>
@@ -22402,10 +22886,10 @@
         <v>1</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN81">
         <v>0</v>
@@ -22483,13 +22967,13 @@
         <v>0</v>
       </c>
       <c r="BM81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN81">
         <v>0</v>
       </c>
       <c r="BO81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP81">
         <v>0</v>
@@ -22498,13 +22982,13 @@
         <v>0</v>
       </c>
       <c r="BR81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS81">
         <v>0</v>
       </c>
       <c r="BT81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU81">
         <v>0</v>
@@ -22528,13 +23012,13 @@
         <v>0</v>
       </c>
       <c r="CB81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC81">
         <v>0</v>
       </c>
       <c r="CD81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE81">
         <v>0</v>
@@ -22546,6 +23030,12 @@
         <v>0</v>
       </c>
       <c r="CH81">
+        <v>0</v>
+      </c>
+      <c r="CI81">
+        <v>0</v>
+      </c>
+      <c r="CJ81">
         <v>0</v>
       </c>
     </row>
@@ -22674,10 +23164,10 @@
         <v>1</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN82">
         <v>0</v>
@@ -22716,13 +23206,13 @@
         <v>0</v>
       </c>
       <c r="AZ82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA82">
         <v>0</v>
       </c>
       <c r="BB82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC82">
         <v>0</v>
@@ -22755,13 +23245,13 @@
         <v>0</v>
       </c>
       <c r="BM82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN82">
         <v>0</v>
       </c>
       <c r="BO82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP82">
         <v>0</v>
@@ -22770,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="BR82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS82">
         <v>0</v>
       </c>
       <c r="BT82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV82">
         <v>0</v>
       </c>
       <c r="BW82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX82">
         <v>0</v>
@@ -22800,13 +23290,13 @@
         <v>0</v>
       </c>
       <c r="CB82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC82">
         <v>0</v>
       </c>
       <c r="CD82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE82">
         <v>0</v>
@@ -22818,6 +23308,12 @@
         <v>0</v>
       </c>
       <c r="CH82">
+        <v>0</v>
+      </c>
+      <c r="CI82">
+        <v>0</v>
+      </c>
+      <c r="CJ82">
         <v>0</v>
       </c>
     </row>
@@ -22946,10 +23442,10 @@
         <v>1</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN83">
         <v>0</v>
@@ -22970,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU83">
         <v>0</v>
       </c>
       <c r="AV83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW83">
         <v>0</v>
@@ -22988,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="AZ83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA83">
         <v>0</v>
@@ -23000,7 +23496,7 @@
         <v>0</v>
       </c>
       <c r="BD83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE83">
         <v>0</v>
@@ -23027,13 +23523,13 @@
         <v>0</v>
       </c>
       <c r="BM83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN83">
         <v>0</v>
       </c>
       <c r="BO83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP83">
         <v>0</v>
@@ -23042,13 +23538,13 @@
         <v>0</v>
       </c>
       <c r="BR83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS83">
         <v>0</v>
       </c>
       <c r="BT83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU83">
         <v>0</v>
@@ -23072,13 +23568,13 @@
         <v>0</v>
       </c>
       <c r="CB83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC83">
         <v>0</v>
       </c>
       <c r="CD83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE83">
         <v>0</v>
@@ -23090,6 +23586,12 @@
         <v>0</v>
       </c>
       <c r="CH83">
+        <v>0</v>
+      </c>
+      <c r="CI83">
+        <v>0</v>
+      </c>
+      <c r="CJ83">
         <v>0</v>
       </c>
     </row>
@@ -23218,10 +23720,10 @@
         <v>1</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN84">
         <v>0</v>
@@ -23260,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="AZ84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA84">
         <v>0</v>
@@ -23272,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="BD84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE84">
         <v>0</v>
@@ -23299,13 +23801,13 @@
         <v>0</v>
       </c>
       <c r="BM84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN84">
         <v>0</v>
       </c>
       <c r="BO84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP84">
         <v>0</v>
@@ -23314,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="BR84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS84">
         <v>0</v>
       </c>
       <c r="BT84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV84">
         <v>0</v>
       </c>
       <c r="BW84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX84">
         <v>0</v>
@@ -23344,13 +23846,13 @@
         <v>0</v>
       </c>
       <c r="CB84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC84">
         <v>0</v>
       </c>
       <c r="CD84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE84">
         <v>0</v>
@@ -23362,6 +23864,12 @@
         <v>0</v>
       </c>
       <c r="CH84">
+        <v>0</v>
+      </c>
+      <c r="CI84">
+        <v>0</v>
+      </c>
+      <c r="CJ84">
         <v>0</v>
       </c>
     </row>
@@ -23490,10 +23998,10 @@
         <v>1</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN85">
         <v>0</v>
@@ -23532,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="AZ85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA85">
         <v>0</v>
@@ -23544,7 +24052,7 @@
         <v>0</v>
       </c>
       <c r="BD85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE85">
         <v>0</v>
@@ -23586,22 +24094,22 @@
         <v>0</v>
       </c>
       <c r="BR85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS85">
         <v>0</v>
       </c>
       <c r="BT85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV85">
         <v>0</v>
       </c>
       <c r="BW85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX85">
         <v>0</v>
@@ -23613,16 +24121,16 @@
         <v>0</v>
       </c>
       <c r="CA85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE85">
         <v>0</v>
@@ -23634,6 +24142,12 @@
         <v>0</v>
       </c>
       <c r="CH85">
+        <v>0</v>
+      </c>
+      <c r="CI85">
+        <v>0</v>
+      </c>
+      <c r="CJ85">
         <v>0</v>
       </c>
     </row>
@@ -23762,10 +24276,10 @@
         <v>1</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN86">
         <v>0</v>
@@ -23804,7 +24318,7 @@
         <v>0</v>
       </c>
       <c r="AZ86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA86">
         <v>0</v>
@@ -23816,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="BD86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE86">
         <v>0</v>
@@ -23858,22 +24372,22 @@
         <v>0</v>
       </c>
       <c r="BR86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS86">
         <v>0</v>
       </c>
       <c r="BT86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV86">
         <v>0</v>
       </c>
       <c r="BW86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX86">
         <v>0</v>
@@ -23885,16 +24399,16 @@
         <v>0</v>
       </c>
       <c r="CA86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE86">
         <v>0</v>
@@ -23906,6 +24420,12 @@
         <v>0</v>
       </c>
       <c r="CH86">
+        <v>0</v>
+      </c>
+      <c r="CI86">
+        <v>0</v>
+      </c>
+      <c r="CJ86">
         <v>0</v>
       </c>
     </row>
@@ -24034,10 +24554,10 @@
         <v>1</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN87">
         <v>0</v>
@@ -24076,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="AZ87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA87">
         <v>0</v>
@@ -24088,7 +24608,7 @@
         <v>0</v>
       </c>
       <c r="BD87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE87">
         <v>0</v>
@@ -24130,13 +24650,13 @@
         <v>0</v>
       </c>
       <c r="BR87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS87">
         <v>0</v>
       </c>
       <c r="BT87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU87">
         <v>0</v>
@@ -24157,16 +24677,16 @@
         <v>0</v>
       </c>
       <c r="CA87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE87">
         <v>0</v>
@@ -24178,6 +24698,12 @@
         <v>0</v>
       </c>
       <c r="CH87">
+        <v>0</v>
+      </c>
+      <c r="CI87">
+        <v>0</v>
+      </c>
+      <c r="CJ87">
         <v>0</v>
       </c>
     </row>
@@ -24306,10 +24832,10 @@
         <v>1</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN88">
         <v>0</v>
@@ -24348,7 +24874,7 @@
         <v>0</v>
       </c>
       <c r="AZ88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA88">
         <v>0</v>
@@ -24360,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="BD88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE88">
         <v>0</v>
@@ -24387,13 +24913,13 @@
         <v>0</v>
       </c>
       <c r="BM88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN88">
         <v>0</v>
       </c>
       <c r="BO88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP88">
         <v>0</v>
@@ -24402,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="BR88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS88">
         <v>0</v>
       </c>
       <c r="BT88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU88">
         <v>0</v>
@@ -24432,13 +24958,13 @@
         <v>0</v>
       </c>
       <c r="CB88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC88">
         <v>0</v>
       </c>
       <c r="CD88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE88">
         <v>0</v>
@@ -24450,6 +24976,12 @@
         <v>0</v>
       </c>
       <c r="CH88">
+        <v>0</v>
+      </c>
+      <c r="CI88">
+        <v>0</v>
+      </c>
+      <c r="CJ88">
         <v>0</v>
       </c>
     </row>
@@ -24578,10 +25110,10 @@
         <v>1</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN89">
         <v>0</v>
@@ -24620,13 +25152,13 @@
         <v>0</v>
       </c>
       <c r="AZ89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA89">
         <v>0</v>
       </c>
       <c r="BB89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC89">
         <v>0</v>
@@ -24653,13 +25185,13 @@
         <v>0</v>
       </c>
       <c r="BK89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL89">
         <v>0</v>
       </c>
       <c r="BM89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN89">
         <v>0</v>
@@ -24674,13 +25206,13 @@
         <v>0</v>
       </c>
       <c r="BR89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS89">
         <v>0</v>
       </c>
       <c r="BT89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU89">
         <v>0</v>
@@ -24701,16 +25233,16 @@
         <v>0</v>
       </c>
       <c r="CA89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE89">
         <v>0</v>
@@ -24722,7 +25254,847 @@
         <v>0</v>
       </c>
       <c r="CH89">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="CI89">
+        <v>0</v>
+      </c>
+      <c r="CJ89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CRAN Package Authors</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, camcorder, ggtext, nrBrand, igraph, ggraph, glue, tidytuesdayR, lubridate</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023/2023-09-19/20230919.R</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2023/2023-09-19/20230919.png</t>
+        </is>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
+      <c r="AS90">
+        <v>1</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
+        <v>1</v>
+      </c>
+      <c r="AW90">
+        <v>0</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90">
+        <v>0</v>
+      </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>0</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
+      </c>
+      <c r="BQ90">
+        <v>0</v>
+      </c>
+      <c r="BR90">
+        <v>0</v>
+      </c>
+      <c r="BS90">
+        <v>0</v>
+      </c>
+      <c r="BT90">
+        <v>1</v>
+      </c>
+      <c r="BU90">
+        <v>0</v>
+      </c>
+      <c r="BV90">
+        <v>0</v>
+      </c>
+      <c r="BW90">
+        <v>0</v>
+      </c>
+      <c r="BX90">
+        <v>0</v>
+      </c>
+      <c r="BY90">
+        <v>0</v>
+      </c>
+      <c r="BZ90">
+        <v>0</v>
+      </c>
+      <c r="CA90">
+        <v>0</v>
+      </c>
+      <c r="CB90">
+        <v>0</v>
+      </c>
+      <c r="CC90">
+        <v>1</v>
+      </c>
+      <c r="CD90">
+        <v>1</v>
+      </c>
+      <c r="CE90">
+        <v>0</v>
+      </c>
+      <c r="CF90">
+        <v>0</v>
+      </c>
+      <c r="CG90">
+        <v>0</v>
+      </c>
+      <c r="CH90">
+        <v>0</v>
+      </c>
+      <c r="CI90">
+        <v>0</v>
+      </c>
+      <c r="CJ90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Roy Kent F**k Count</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, ggwordcloud, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023/2023-09-26/20230926.R</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2023/2023-09-26/20230926.png</t>
+        </is>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
+        <v>0</v>
+      </c>
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>0</v>
+      </c>
+      <c r="BD91">
+        <v>1</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>0</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+      <c r="BQ91">
+        <v>0</v>
+      </c>
+      <c r="BR91">
+        <v>0</v>
+      </c>
+      <c r="BS91">
+        <v>0</v>
+      </c>
+      <c r="BT91">
+        <v>1</v>
+      </c>
+      <c r="BU91">
+        <v>0</v>
+      </c>
+      <c r="BV91">
+        <v>0</v>
+      </c>
+      <c r="BW91">
+        <v>0</v>
+      </c>
+      <c r="BX91">
+        <v>0</v>
+      </c>
+      <c r="BY91">
+        <v>0</v>
+      </c>
+      <c r="BZ91">
+        <v>0</v>
+      </c>
+      <c r="CA91">
+        <v>0</v>
+      </c>
+      <c r="CB91">
+        <v>0</v>
+      </c>
+      <c r="CC91">
+        <v>1</v>
+      </c>
+      <c r="CD91">
+        <v>1</v>
+      </c>
+      <c r="CE91">
+        <v>0</v>
+      </c>
+      <c r="CF91">
+        <v>0</v>
+      </c>
+      <c r="CG91">
+        <v>0</v>
+      </c>
+      <c r="CH91">
+        <v>0</v>
+      </c>
+      <c r="CI91">
+        <v>0</v>
+      </c>
+      <c r="CJ91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>US Government Grant Opportunities</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, tidytuesdayR, lubridate</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023/2023-10-03/20231003.R</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2023/2023-10-03/20231003.png</t>
+        </is>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>0</v>
+      </c>
+      <c r="AS92">
+        <v>0</v>
+      </c>
+      <c r="AT92">
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>1</v>
+      </c>
+      <c r="AW92">
+        <v>0</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>1</v>
+      </c>
+      <c r="BC92">
+        <v>0</v>
+      </c>
+      <c r="BD92">
+        <v>1</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
+      </c>
+      <c r="BQ92">
+        <v>0</v>
+      </c>
+      <c r="BR92">
+        <v>0</v>
+      </c>
+      <c r="BS92">
+        <v>0</v>
+      </c>
+      <c r="BT92">
+        <v>1</v>
+      </c>
+      <c r="BU92">
+        <v>0</v>
+      </c>
+      <c r="BV92">
+        <v>0</v>
+      </c>
+      <c r="BW92">
+        <v>0</v>
+      </c>
+      <c r="BX92">
+        <v>0</v>
+      </c>
+      <c r="BY92">
+        <v>0</v>
+      </c>
+      <c r="BZ92">
+        <v>0</v>
+      </c>
+      <c r="CA92">
+        <v>0</v>
+      </c>
+      <c r="CB92">
+        <v>0</v>
+      </c>
+      <c r="CC92">
+        <v>1</v>
+      </c>
+      <c r="CD92">
+        <v>1</v>
+      </c>
+      <c r="CE92">
+        <v>0</v>
+      </c>
+      <c r="CF92">
+        <v>0</v>
+      </c>
+      <c r="CG92">
+        <v>0</v>
+      </c>
+      <c r="CH92">
+        <v>0</v>
+      </c>
+      <c r="CI92">
+        <v>0</v>
+      </c>
+      <c r="CJ92">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EH165"/>
+  <dimension ref="A1:EH167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71241,6 +71241,862 @@
         <v>0</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, sf, VoronoiPlus, tidytuesdayR, rcartocolor</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2024/2024-02-20/20240220.R</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2024/2024-02-20/20240220.png</t>
+        </is>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
+      <c r="AE166">
+        <v>0</v>
+      </c>
+      <c r="AF166">
+        <v>0</v>
+      </c>
+      <c r="AG166">
+        <v>0</v>
+      </c>
+      <c r="AH166">
+        <v>0</v>
+      </c>
+      <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>0</v>
+      </c>
+      <c r="AO166">
+        <v>0</v>
+      </c>
+      <c r="AP166">
+        <v>0</v>
+      </c>
+      <c r="AQ166">
+        <v>0</v>
+      </c>
+      <c r="AR166">
+        <v>0</v>
+      </c>
+      <c r="AS166">
+        <v>0</v>
+      </c>
+      <c r="AT166">
+        <v>0</v>
+      </c>
+      <c r="AU166">
+        <v>0</v>
+      </c>
+      <c r="AV166">
+        <v>0</v>
+      </c>
+      <c r="AW166">
+        <v>0</v>
+      </c>
+      <c r="AX166">
+        <v>0</v>
+      </c>
+      <c r="AY166">
+        <v>0</v>
+      </c>
+      <c r="AZ166">
+        <v>0</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BC166">
+        <v>0</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>1</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>0</v>
+      </c>
+      <c r="BJ166">
+        <v>0</v>
+      </c>
+      <c r="BK166">
+        <v>0</v>
+      </c>
+      <c r="BL166">
+        <v>0</v>
+      </c>
+      <c r="BM166">
+        <v>0</v>
+      </c>
+      <c r="BN166">
+        <v>0</v>
+      </c>
+      <c r="BO166">
+        <v>0</v>
+      </c>
+      <c r="BP166">
+        <v>0</v>
+      </c>
+      <c r="BQ166">
+        <v>0</v>
+      </c>
+      <c r="BR166">
+        <v>0</v>
+      </c>
+      <c r="BS166">
+        <v>0</v>
+      </c>
+      <c r="BT166">
+        <v>0</v>
+      </c>
+      <c r="BU166">
+        <v>0</v>
+      </c>
+      <c r="BV166">
+        <v>0</v>
+      </c>
+      <c r="BW166">
+        <v>0</v>
+      </c>
+      <c r="BX166">
+        <v>0</v>
+      </c>
+      <c r="BY166">
+        <v>0</v>
+      </c>
+      <c r="BZ166">
+        <v>0</v>
+      </c>
+      <c r="CA166">
+        <v>1</v>
+      </c>
+      <c r="CB166">
+        <v>0</v>
+      </c>
+      <c r="CC166">
+        <v>0</v>
+      </c>
+      <c r="CD166">
+        <v>0</v>
+      </c>
+      <c r="CE166">
+        <v>0</v>
+      </c>
+      <c r="CF166">
+        <v>1</v>
+      </c>
+      <c r="CG166">
+        <v>0</v>
+      </c>
+      <c r="CH166">
+        <v>0</v>
+      </c>
+      <c r="CI166">
+        <v>0</v>
+      </c>
+      <c r="CJ166">
+        <v>0</v>
+      </c>
+      <c r="CK166">
+        <v>0</v>
+      </c>
+      <c r="CL166">
+        <v>0</v>
+      </c>
+      <c r="CM166">
+        <v>0</v>
+      </c>
+      <c r="CN166">
+        <v>0</v>
+      </c>
+      <c r="CO166">
+        <v>0</v>
+      </c>
+      <c r="CP166">
+        <v>0</v>
+      </c>
+      <c r="CQ166">
+        <v>1</v>
+      </c>
+      <c r="CR166">
+        <v>0</v>
+      </c>
+      <c r="CS166">
+        <v>0</v>
+      </c>
+      <c r="CT166">
+        <v>0</v>
+      </c>
+      <c r="CU166">
+        <v>0</v>
+      </c>
+      <c r="CV166">
+        <v>0</v>
+      </c>
+      <c r="CW166">
+        <v>0</v>
+      </c>
+      <c r="CX166">
+        <v>0</v>
+      </c>
+      <c r="CY166">
+        <v>0</v>
+      </c>
+      <c r="CZ166">
+        <v>0</v>
+      </c>
+      <c r="DA166">
+        <v>0</v>
+      </c>
+      <c r="DB166">
+        <v>0</v>
+      </c>
+      <c r="DC166">
+        <v>0</v>
+      </c>
+      <c r="DD166">
+        <v>1</v>
+      </c>
+      <c r="DE166">
+        <v>1</v>
+      </c>
+      <c r="DF166">
+        <v>0</v>
+      </c>
+      <c r="DG166">
+        <v>0</v>
+      </c>
+      <c r="DH166">
+        <v>0</v>
+      </c>
+      <c r="DI166">
+        <v>0</v>
+      </c>
+      <c r="DJ166">
+        <v>0</v>
+      </c>
+      <c r="DK166">
+        <v>0</v>
+      </c>
+      <c r="DL166">
+        <v>0</v>
+      </c>
+      <c r="DM166">
+        <v>0</v>
+      </c>
+      <c r="DN166">
+        <v>0</v>
+      </c>
+      <c r="DO166">
+        <v>0</v>
+      </c>
+      <c r="DP166">
+        <v>0</v>
+      </c>
+      <c r="DQ166">
+        <v>0</v>
+      </c>
+      <c r="DR166">
+        <v>0</v>
+      </c>
+      <c r="DS166">
+        <v>0</v>
+      </c>
+      <c r="DT166">
+        <v>0</v>
+      </c>
+      <c r="DU166">
+        <v>1</v>
+      </c>
+      <c r="DV166">
+        <v>1</v>
+      </c>
+      <c r="DW166">
+        <v>0</v>
+      </c>
+      <c r="DX166">
+        <v>0</v>
+      </c>
+      <c r="DY166">
+        <v>0</v>
+      </c>
+      <c r="DZ166">
+        <v>0</v>
+      </c>
+      <c r="EA166">
+        <v>0</v>
+      </c>
+      <c r="EB166">
+        <v>0</v>
+      </c>
+      <c r="EC166">
+        <v>0</v>
+      </c>
+      <c r="ED166">
+        <v>0</v>
+      </c>
+      <c r="EE166">
+        <v>0</v>
+      </c>
+      <c r="EF166">
+        <v>1</v>
+      </c>
+      <c r="EG166">
+        <v>0</v>
+      </c>
+      <c r="EH166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Leap Day</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>tidyverse, showtext, patchwork, camcorder, ggtext, nrBrand, glue, tidytuesdayR</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2024/2024-02-27/20240227.R</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2024/2024-02-27/20240227.png</t>
+        </is>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <v>0</v>
+      </c>
+      <c r="AC167">
+        <v>0</v>
+      </c>
+      <c r="AD167">
+        <v>0</v>
+      </c>
+      <c r="AE167">
+        <v>0</v>
+      </c>
+      <c r="AF167">
+        <v>0</v>
+      </c>
+      <c r="AG167">
+        <v>0</v>
+      </c>
+      <c r="AH167">
+        <v>0</v>
+      </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>0</v>
+      </c>
+      <c r="AO167">
+        <v>0</v>
+      </c>
+      <c r="AP167">
+        <v>0</v>
+      </c>
+      <c r="AQ167">
+        <v>0</v>
+      </c>
+      <c r="AR167">
+        <v>0</v>
+      </c>
+      <c r="AS167">
+        <v>0</v>
+      </c>
+      <c r="AT167">
+        <v>0</v>
+      </c>
+      <c r="AU167">
+        <v>0</v>
+      </c>
+      <c r="AV167">
+        <v>0</v>
+      </c>
+      <c r="AW167">
+        <v>0</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>1</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>1</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>0</v>
+      </c>
+      <c r="BJ167">
+        <v>0</v>
+      </c>
+      <c r="BK167">
+        <v>0</v>
+      </c>
+      <c r="BL167">
+        <v>0</v>
+      </c>
+      <c r="BM167">
+        <v>0</v>
+      </c>
+      <c r="BN167">
+        <v>0</v>
+      </c>
+      <c r="BO167">
+        <v>0</v>
+      </c>
+      <c r="BP167">
+        <v>0</v>
+      </c>
+      <c r="BQ167">
+        <v>0</v>
+      </c>
+      <c r="BR167">
+        <v>0</v>
+      </c>
+      <c r="BS167">
+        <v>0</v>
+      </c>
+      <c r="BT167">
+        <v>0</v>
+      </c>
+      <c r="BU167">
+        <v>0</v>
+      </c>
+      <c r="BV167">
+        <v>0</v>
+      </c>
+      <c r="BW167">
+        <v>0</v>
+      </c>
+      <c r="BX167">
+        <v>0</v>
+      </c>
+      <c r="BY167">
+        <v>0</v>
+      </c>
+      <c r="BZ167">
+        <v>0</v>
+      </c>
+      <c r="CA167">
+        <v>1</v>
+      </c>
+      <c r="CB167">
+        <v>0</v>
+      </c>
+      <c r="CC167">
+        <v>0</v>
+      </c>
+      <c r="CD167">
+        <v>0</v>
+      </c>
+      <c r="CE167">
+        <v>0</v>
+      </c>
+      <c r="CF167">
+        <v>1</v>
+      </c>
+      <c r="CG167">
+        <v>0</v>
+      </c>
+      <c r="CH167">
+        <v>0</v>
+      </c>
+      <c r="CI167">
+        <v>0</v>
+      </c>
+      <c r="CJ167">
+        <v>0</v>
+      </c>
+      <c r="CK167">
+        <v>0</v>
+      </c>
+      <c r="CL167">
+        <v>0</v>
+      </c>
+      <c r="CM167">
+        <v>0</v>
+      </c>
+      <c r="CN167">
+        <v>0</v>
+      </c>
+      <c r="CO167">
+        <v>0</v>
+      </c>
+      <c r="CP167">
+        <v>0</v>
+      </c>
+      <c r="CQ167">
+        <v>0</v>
+      </c>
+      <c r="CR167">
+        <v>0</v>
+      </c>
+      <c r="CS167">
+        <v>0</v>
+      </c>
+      <c r="CT167">
+        <v>0</v>
+      </c>
+      <c r="CU167">
+        <v>0</v>
+      </c>
+      <c r="CV167">
+        <v>0</v>
+      </c>
+      <c r="CW167">
+        <v>0</v>
+      </c>
+      <c r="CX167">
+        <v>0</v>
+      </c>
+      <c r="CY167">
+        <v>0</v>
+      </c>
+      <c r="CZ167">
+        <v>0</v>
+      </c>
+      <c r="DA167">
+        <v>0</v>
+      </c>
+      <c r="DB167">
+        <v>0</v>
+      </c>
+      <c r="DC167">
+        <v>0</v>
+      </c>
+      <c r="DD167">
+        <v>0</v>
+      </c>
+      <c r="DE167">
+        <v>1</v>
+      </c>
+      <c r="DF167">
+        <v>0</v>
+      </c>
+      <c r="DG167">
+        <v>0</v>
+      </c>
+      <c r="DH167">
+        <v>0</v>
+      </c>
+      <c r="DI167">
+        <v>0</v>
+      </c>
+      <c r="DJ167">
+        <v>0</v>
+      </c>
+      <c r="DK167">
+        <v>0</v>
+      </c>
+      <c r="DL167">
+        <v>0</v>
+      </c>
+      <c r="DM167">
+        <v>0</v>
+      </c>
+      <c r="DN167">
+        <v>0</v>
+      </c>
+      <c r="DO167">
+        <v>0</v>
+      </c>
+      <c r="DP167">
+        <v>0</v>
+      </c>
+      <c r="DQ167">
+        <v>0</v>
+      </c>
+      <c r="DR167">
+        <v>0</v>
+      </c>
+      <c r="DS167">
+        <v>0</v>
+      </c>
+      <c r="DT167">
+        <v>0</v>
+      </c>
+      <c r="DU167">
+        <v>1</v>
+      </c>
+      <c r="DV167">
+        <v>1</v>
+      </c>
+      <c r="DW167">
+        <v>0</v>
+      </c>
+      <c r="DX167">
+        <v>0</v>
+      </c>
+      <c r="DY167">
+        <v>0</v>
+      </c>
+      <c r="DZ167">
+        <v>0</v>
+      </c>
+      <c r="EA167">
+        <v>0</v>
+      </c>
+      <c r="EB167">
+        <v>0</v>
+      </c>
+      <c r="EC167">
+        <v>0</v>
+      </c>
+      <c r="ED167">
+        <v>0</v>
+      </c>
+      <c r="EE167">
+        <v>0</v>
+      </c>
+      <c r="EF167">
+        <v>0</v>
+      </c>
+      <c r="EG167">
+        <v>0</v>
+      </c>
+      <c r="EH167">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/all_weeks.xlsx
+++ b/data/all_weeks.xlsx
@@ -71254,7 +71254,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>R Consortium ISC Grants</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
